--- a/Code/Results/Cases/Case_1_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_54/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.300898404721245</v>
+        <v>6.300898404721238</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.74398603695886</v>
+        <v>7.743986036958919</v>
       </c>
       <c r="E2">
-        <v>6.076419277306131</v>
+        <v>6.076419277306198</v>
       </c>
       <c r="F2">
-        <v>60.13460527039513</v>
+        <v>60.13460527039531</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>12.41141522259081</v>
+        <v>12.41141522259079</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>49.61860998263072</v>
+        <v>49.6186099826309</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>32.59739922436266</v>
+        <v>32.59739922436275</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.999591352203438</v>
+        <v>5.999591352203446</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.097938727478753</v>
+        <v>7.097938727478804</v>
       </c>
       <c r="E3">
-        <v>6.058421346307465</v>
+        <v>6.058421346307568</v>
       </c>
       <c r="F3">
-        <v>55.21057524167687</v>
+        <v>55.21057524167684</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>45.73222778820185</v>
+        <v>45.73222778820176</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>30.04593134485537</v>
+        <v>30.04593134485529</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.803188927061856</v>
+        <v>5.803188927061972</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.780668763235901</v>
+        <v>6.780668763235884</v>
       </c>
       <c r="E4">
-        <v>6.051084155399584</v>
+        <v>6.051084155399515</v>
       </c>
       <c r="F4">
         <v>52.16797929009034</v>
@@ -506,19 +506,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>13.21244426111289</v>
+        <v>13.21244426111283</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>43.281915194269</v>
+        <v>43.28191519426902</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>28.43848677395353</v>
+        <v>28.43848677395356</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.720388993038926</v>
+        <v>5.720388993039013</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.654182728628173</v>
+        <v>6.6541827286282</v>
       </c>
       <c r="E5">
-        <v>6.04886915822446</v>
+        <v>6.048869158224527</v>
       </c>
       <c r="F5">
-        <v>50.91981831734333</v>
+        <v>50.91981831734335</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>13.34131117397638</v>
+        <v>13.34131117397639</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>42.26469746709572</v>
+        <v>42.26469746709577</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>27.77147753940747</v>
+        <v>27.77147753940749</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.706476088868603</v>
+        <v>5.706476088868609</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.633338189253972</v>
+        <v>6.633338189253929</v>
       </c>
       <c r="E6">
-        <v>6.048544336691835</v>
+        <v>6.048544336691633</v>
       </c>
       <c r="F6">
-        <v>50.71198039170989</v>
+        <v>50.71198039170974</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>13.36284145962912</v>
+        <v>13.3628414596292</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>42.0945942342064</v>
+        <v>42.09459423420622</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>27.65995551170574</v>
+        <v>27.65995551170569</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.802083318936481</v>
+        <v>5.802083318936415</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.778952089590342</v>
+        <v>6.778952089590344</v>
       </c>
       <c r="E7">
-        <v>6.051051323433235</v>
+        <v>6.051051323433237</v>
       </c>
       <c r="F7">
         <v>52.1511834943196</v>
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>13.21417327948966</v>
+        <v>13.21417327948959</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>43.26827537622494</v>
+        <v>43.26827537622493</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.199436683491831</v>
+        <v>6.199436683491872</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.503783624436064</v>
+        <v>7.503783624436037</v>
       </c>
       <c r="E8">
-        <v>6.069331520145208</v>
+        <v>6.069331520145274</v>
       </c>
       <c r="F8">
-        <v>58.43836930527468</v>
+        <v>58.43836930527458</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12.57833694462754</v>
+        <v>12.57833694462748</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>48.29013797629268</v>
+        <v>48.29013797629266</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>31.72498712508001</v>
+        <v>31.72498712507997</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,31 +678,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.883029158450876</v>
+        <v>6.883029158450861</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.274454874102705</v>
+        <v>9.274454874102716</v>
       </c>
       <c r="E9">
-        <v>6.145426942737062</v>
+        <v>6.145426942737064</v>
       </c>
       <c r="F9">
-        <v>70.84415468653033</v>
+        <v>70.84415468653035</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11.42257040097767</v>
+        <v>11.42257040097766</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>57.78738168978364</v>
+        <v>57.78738168978366</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.317284653322527</v>
+        <v>7.317284653322568</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.6824318141204</v>
+        <v>10.68243181412032</v>
       </c>
       <c r="E10">
-        <v>6.251748688938838</v>
+        <v>6.251748688938736</v>
       </c>
       <c r="F10">
-        <v>80.51604455774751</v>
+        <v>80.51604455774731</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10.6680131342976</v>
+        <v>10.66801313429759</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>64.88447044182337</v>
+        <v>64.88447044182321</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>42.63431484509309</v>
+        <v>42.63431484509299</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.496260882917462</v>
+        <v>7.496260882917492</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>11.38327497209316</v>
+        <v>11.38327497209326</v>
       </c>
       <c r="E11">
-        <v>6.323450879617713</v>
+        <v>6.323450879617712</v>
       </c>
       <c r="F11">
-        <v>85.25609492475336</v>
+        <v>85.25609492475331</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>10.36476280981369</v>
+        <v>10.36476280981382</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>68.27775538867792</v>
+        <v>68.27775538867786</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.560756376502309</v>
+        <v>7.560756376502306</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11.66327246077468</v>
+        <v>11.66327246077474</v>
       </c>
       <c r="E12">
-        <v>6.356129055826718</v>
+        <v>6.35612905582675</v>
       </c>
       <c r="F12">
-        <v>87.13497720243231</v>
+        <v>87.13497720243222</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10.2589858097268</v>
+        <v>10.25898580972682</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>45.74015546670063</v>
+        <v>45.74015546670062</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.547026654967503</v>
+        <v>7.54702665496747</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>11.60217813488644</v>
+        <v>11.60217813488649</v>
       </c>
       <c r="E13">
-        <v>6.348790792643586</v>
+        <v>6.348790792643549</v>
       </c>
       <c r="F13">
-        <v>86.72575423774104</v>
+        <v>86.72575423774111</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>10.28128422775112</v>
+        <v>10.28128422775105</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>69.31926551365302</v>
+        <v>69.31926551365304</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>45.5501377291071</v>
+        <v>45.55013772910712</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.501637771293555</v>
+        <v>7.501637771293512</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11.40596854067516</v>
+        <v>11.40596854067504</v>
       </c>
       <c r="E14">
-        <v>6.326009729810475</v>
+        <v>6.326009729810508</v>
       </c>
       <c r="F14">
-        <v>85.40869882632641</v>
+        <v>85.40869882632653</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>10.35585130753628</v>
+        <v>10.35585130753641</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>68.38613043628882</v>
+        <v>68.38613043628884</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>44.93680220879671</v>
+        <v>44.93680220879673</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.473383323091473</v>
+        <v>7.473383323091523</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11.28793286592755</v>
+        <v>11.2879328659276</v>
       </c>
       <c r="E15">
-        <v>6.31286918152271</v>
+        <v>6.312869181522776</v>
       </c>
       <c r="F15">
-        <v>84.61434860098657</v>
+        <v>84.61434860098683</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10.40284362648726</v>
+        <v>10.40284362648718</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>67.82142052387627</v>
+        <v>67.82142052387643</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>44.56556732765958</v>
+        <v>44.56556732765966</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.305171198407034</v>
+        <v>7.305171198407076</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.63826668305208</v>
+        <v>10.638266683052</v>
       </c>
       <c r="E16">
-        <v>6.247683080563965</v>
+        <v>6.247683080563933</v>
       </c>
       <c r="F16">
-        <v>80.21561425021258</v>
+        <v>80.21561425021207</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>64.66759666762462</v>
+        <v>64.66759666762444</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>42.49167971402124</v>
+        <v>42.4916797140211</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.196900081761645</v>
+        <v>7.196900081761664</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.25832228624231</v>
+        <v>10.25832228624226</v>
       </c>
       <c r="E17">
-        <v>6.214776071854235</v>
+        <v>6.214776071854302</v>
       </c>
       <c r="F17">
-        <v>77.62289981374542</v>
+        <v>77.62289981374551</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>62.7867477293953</v>
+        <v>62.78674772939539</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>41.25459311821139</v>
+        <v>41.25459311821143</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.132927684685947</v>
+        <v>7.132927684685953</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.04497996987758</v>
+        <v>10.04497996987761</v>
       </c>
       <c r="E18">
-        <v>6.197862362996196</v>
+        <v>6.197862362996129</v>
       </c>
       <c r="F18">
-        <v>76.16077993914161</v>
+        <v>76.16077993914172</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>10.98762136587942</v>
+        <v>10.98762136587944</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>61.71863444648832</v>
+        <v>61.71863444648829</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>40.5520356907275</v>
+        <v>40.55203569072752</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.110988942071045</v>
+        <v>7.110988942071089</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.973512570191076</v>
+        <v>9.973512570191074</v>
       </c>
       <c r="E19">
-        <v>6.19243815886781</v>
+        <v>6.192438158867711</v>
       </c>
       <c r="F19">
-        <v>75.66999661773121</v>
+        <v>75.66999661773076</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>11.02583677008503</v>
+        <v>11.0258367700849</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>61.35887724619369</v>
+        <v>61.35887724619349</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>40.31540352179685</v>
+        <v>40.31540352179674</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.208604640595842</v>
+        <v>7.208604640595862</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.29819936383238</v>
+        <v>10.29819936383251</v>
       </c>
       <c r="E20">
-        <v>6.218059740569684</v>
+        <v>6.218059740569951</v>
       </c>
       <c r="F20">
-        <v>77.89569736201707</v>
+        <v>77.89569736201756</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>10.85598652957323</v>
+        <v>10.85598652957315</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>62.98543265302057</v>
+        <v>62.98543265302087</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>41.38527813112729</v>
+        <v>41.38527813112741</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.515065661985173</v>
+        <v>7.515065661985131</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>11.46313507063286</v>
+        <v>11.46313507063289</v>
       </c>
       <c r="E21">
-        <v>6.332524861799632</v>
+        <v>6.332524861799768</v>
       </c>
       <c r="F21">
-        <v>85.79286731012468</v>
+        <v>85.79286731012516</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>10.33366485556943</v>
+        <v>10.33366485556951</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>68.65872087275781</v>
+        <v>68.65872087275815</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>45.11598515210729</v>
+        <v>45.11598515210747</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.695530036948151</v>
+        <v>7.695530036948169</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>12.31646385024565</v>
+        <v>12.3164638502457</v>
       </c>
       <c r="E22">
         <v>6.442297450917675</v>
       </c>
       <c r="F22">
-        <v>91.48364508430021</v>
+        <v>91.48364508430048</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>10.04889287100827</v>
+        <v>10.04889287100831</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>72.65813644363924</v>
+        <v>72.65813644363939</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>47.74337667437845</v>
+        <v>47.74337667437856</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.601373391848274</v>
+        <v>7.601373391848265</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>11.84926541422335</v>
+        <v>11.84926541422326</v>
       </c>
       <c r="E23">
-        <v>6.379205899229522</v>
+        <v>6.379205899229485</v>
       </c>
       <c r="F23">
-        <v>88.37821662752306</v>
+        <v>88.37821662752272</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>10.19384079559326</v>
+        <v>10.19384079559329</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>70.48452342390731</v>
+        <v>70.48452342390715</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>46.31584058265149</v>
+        <v>46.31584058265143</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.20331834666964</v>
+        <v>7.203318346669701</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.28015545174845</v>
+        <v>10.28015545174848</v>
       </c>
       <c r="E24">
-        <v>6.216569083332855</v>
+        <v>6.216569083332755</v>
       </c>
       <c r="F24">
-        <v>77.77227915732773</v>
+        <v>77.7722791573277</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>10.86516799473747</v>
+        <v>10.86516799473748</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>62.89556745037297</v>
+        <v>62.89556745037292</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>41.32616936812543</v>
+        <v>41.32616936812545</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.709151046872168</v>
+        <v>6.709151046872138</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.785066347268263</v>
+        <v>8.785066347268234</v>
       </c>
       <c r="E25">
-        <v>6.118604640183681</v>
+        <v>6.118604640183748</v>
       </c>
       <c r="F25">
-        <v>67.43983464501959</v>
+        <v>67.43983464501953</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>11.72272443398649</v>
+        <v>11.72272443398657</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>55.22894152632188</v>
+        <v>55.22894152632185</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>36.28415336866045</v>
+        <v>36.28415336866041</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_54/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.300898404721238</v>
+        <v>6.300898404721245</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.743986036958919</v>
+        <v>7.74398603695886</v>
       </c>
       <c r="E2">
-        <v>6.076419277306198</v>
+        <v>6.076419277306131</v>
       </c>
       <c r="F2">
-        <v>60.13460527039531</v>
+        <v>60.13460527039513</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>12.41141522259079</v>
+        <v>12.41141522259081</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>49.6186099826309</v>
+        <v>49.61860998263072</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>32.59739922436275</v>
+        <v>32.59739922436266</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.999591352203446</v>
+        <v>5.999591352203438</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.097938727478804</v>
+        <v>7.097938727478753</v>
       </c>
       <c r="E3">
-        <v>6.058421346307568</v>
+        <v>6.058421346307465</v>
       </c>
       <c r="F3">
-        <v>55.21057524167684</v>
+        <v>55.21057524167687</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>45.73222778820176</v>
+        <v>45.73222778820185</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>30.04593134485529</v>
+        <v>30.04593134485537</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.803188927061972</v>
+        <v>5.803188927061856</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.780668763235884</v>
+        <v>6.780668763235901</v>
       </c>
       <c r="E4">
-        <v>6.051084155399515</v>
+        <v>6.051084155399584</v>
       </c>
       <c r="F4">
         <v>52.16797929009034</v>
@@ -506,19 +506,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>13.21244426111283</v>
+        <v>13.21244426111289</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>43.28191519426902</v>
+        <v>43.281915194269</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>28.43848677395356</v>
+        <v>28.43848677395353</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.720388993039013</v>
+        <v>5.720388993038926</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.6541827286282</v>
+        <v>6.654182728628173</v>
       </c>
       <c r="E5">
-        <v>6.048869158224527</v>
+        <v>6.04886915822446</v>
       </c>
       <c r="F5">
-        <v>50.91981831734335</v>
+        <v>50.91981831734333</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>13.34131117397639</v>
+        <v>13.34131117397638</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>42.26469746709577</v>
+        <v>42.26469746709572</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>27.77147753940749</v>
+        <v>27.77147753940747</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.706476088868609</v>
+        <v>5.706476088868603</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.633338189253929</v>
+        <v>6.633338189253972</v>
       </c>
       <c r="E6">
-        <v>6.048544336691633</v>
+        <v>6.048544336691835</v>
       </c>
       <c r="F6">
-        <v>50.71198039170974</v>
+        <v>50.71198039170989</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>13.3628414596292</v>
+        <v>13.36284145962912</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>42.09459423420622</v>
+        <v>42.0945942342064</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>27.65995551170569</v>
+        <v>27.65995551170574</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.802083318936415</v>
+        <v>5.802083318936481</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.778952089590344</v>
+        <v>6.778952089590342</v>
       </c>
       <c r="E7">
-        <v>6.051051323433237</v>
+        <v>6.051051323433235</v>
       </c>
       <c r="F7">
         <v>52.1511834943196</v>
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>13.21417327948959</v>
+        <v>13.21417327948966</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>43.26827537622493</v>
+        <v>43.26827537622494</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.199436683491872</v>
+        <v>6.199436683491831</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.503783624436037</v>
+        <v>7.503783624436064</v>
       </c>
       <c r="E8">
-        <v>6.069331520145274</v>
+        <v>6.069331520145208</v>
       </c>
       <c r="F8">
-        <v>58.43836930527458</v>
+        <v>58.43836930527468</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12.57833694462748</v>
+        <v>12.57833694462754</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>48.29013797629266</v>
+        <v>48.29013797629268</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>31.72498712507997</v>
+        <v>31.72498712508001</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,31 +678,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.883029158450861</v>
+        <v>6.883029158450876</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.274454874102716</v>
+        <v>9.274454874102705</v>
       </c>
       <c r="E9">
-        <v>6.145426942737064</v>
+        <v>6.145426942737062</v>
       </c>
       <c r="F9">
-        <v>70.84415468653035</v>
+        <v>70.84415468653033</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11.42257040097766</v>
+        <v>11.42257040097767</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>57.78738168978366</v>
+        <v>57.78738168978364</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.317284653322568</v>
+        <v>7.317284653322527</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.68243181412032</v>
+        <v>10.6824318141204</v>
       </c>
       <c r="E10">
-        <v>6.251748688938736</v>
+        <v>6.251748688938838</v>
       </c>
       <c r="F10">
-        <v>80.51604455774731</v>
+        <v>80.51604455774751</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10.66801313429759</v>
+        <v>10.6680131342976</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>64.88447044182321</v>
+        <v>64.88447044182337</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>42.63431484509299</v>
+        <v>42.63431484509309</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.496260882917492</v>
+        <v>7.496260882917462</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>11.38327497209326</v>
+        <v>11.38327497209316</v>
       </c>
       <c r="E11">
-        <v>6.323450879617712</v>
+        <v>6.323450879617713</v>
       </c>
       <c r="F11">
-        <v>85.25609492475331</v>
+        <v>85.25609492475336</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>10.36476280981382</v>
+        <v>10.36476280981369</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>68.27775538867786</v>
+        <v>68.27775538867792</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.560756376502306</v>
+        <v>7.560756376502309</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11.66327246077474</v>
+        <v>11.66327246077468</v>
       </c>
       <c r="E12">
-        <v>6.35612905582675</v>
+        <v>6.356129055826718</v>
       </c>
       <c r="F12">
-        <v>87.13497720243222</v>
+        <v>87.13497720243231</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10.25898580972682</v>
+        <v>10.2589858097268</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>45.74015546670062</v>
+        <v>45.74015546670063</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.54702665496747</v>
+        <v>7.547026654967503</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>11.60217813488649</v>
+        <v>11.60217813488644</v>
       </c>
       <c r="E13">
-        <v>6.348790792643549</v>
+        <v>6.348790792643586</v>
       </c>
       <c r="F13">
-        <v>86.72575423774111</v>
+        <v>86.72575423774104</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>10.28128422775105</v>
+        <v>10.28128422775112</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>69.31926551365304</v>
+        <v>69.31926551365302</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>45.55013772910712</v>
+        <v>45.5501377291071</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.501637771293512</v>
+        <v>7.501637771293555</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11.40596854067504</v>
+        <v>11.40596854067516</v>
       </c>
       <c r="E14">
-        <v>6.326009729810508</v>
+        <v>6.326009729810475</v>
       </c>
       <c r="F14">
-        <v>85.40869882632653</v>
+        <v>85.40869882632641</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>10.35585130753641</v>
+        <v>10.35585130753628</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>68.38613043628884</v>
+        <v>68.38613043628882</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>44.93680220879673</v>
+        <v>44.93680220879671</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.473383323091523</v>
+        <v>7.473383323091473</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11.2879328659276</v>
+        <v>11.28793286592755</v>
       </c>
       <c r="E15">
-        <v>6.312869181522776</v>
+        <v>6.31286918152271</v>
       </c>
       <c r="F15">
-        <v>84.61434860098683</v>
+        <v>84.61434860098657</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10.40284362648718</v>
+        <v>10.40284362648726</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>67.82142052387643</v>
+        <v>67.82142052387627</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>44.56556732765966</v>
+        <v>44.56556732765958</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.305171198407076</v>
+        <v>7.305171198407034</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.638266683052</v>
+        <v>10.63826668305208</v>
       </c>
       <c r="E16">
-        <v>6.247683080563933</v>
+        <v>6.247683080563965</v>
       </c>
       <c r="F16">
-        <v>80.21561425021207</v>
+        <v>80.21561425021258</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>64.66759666762444</v>
+        <v>64.66759666762462</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>42.4916797140211</v>
+        <v>42.49167971402124</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.196900081761664</v>
+        <v>7.196900081761645</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.25832228624226</v>
+        <v>10.25832228624231</v>
       </c>
       <c r="E17">
-        <v>6.214776071854302</v>
+        <v>6.214776071854235</v>
       </c>
       <c r="F17">
-        <v>77.62289981374551</v>
+        <v>77.62289981374542</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>62.78674772939539</v>
+        <v>62.7867477293953</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>41.25459311821143</v>
+        <v>41.25459311821139</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.132927684685953</v>
+        <v>7.132927684685947</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.04497996987761</v>
+        <v>10.04497996987758</v>
       </c>
       <c r="E18">
-        <v>6.197862362996129</v>
+        <v>6.197862362996196</v>
       </c>
       <c r="F18">
-        <v>76.16077993914172</v>
+        <v>76.16077993914161</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>10.98762136587944</v>
+        <v>10.98762136587942</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>61.71863444648829</v>
+        <v>61.71863444648832</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>40.55203569072752</v>
+        <v>40.5520356907275</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.110988942071089</v>
+        <v>7.110988942071045</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.973512570191074</v>
+        <v>9.973512570191076</v>
       </c>
       <c r="E19">
-        <v>6.192438158867711</v>
+        <v>6.19243815886781</v>
       </c>
       <c r="F19">
-        <v>75.66999661773076</v>
+        <v>75.66999661773121</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>11.0258367700849</v>
+        <v>11.02583677008503</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>61.35887724619349</v>
+        <v>61.35887724619369</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>40.31540352179674</v>
+        <v>40.31540352179685</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.208604640595862</v>
+        <v>7.208604640595842</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.29819936383251</v>
+        <v>10.29819936383238</v>
       </c>
       <c r="E20">
-        <v>6.218059740569951</v>
+        <v>6.218059740569684</v>
       </c>
       <c r="F20">
-        <v>77.89569736201756</v>
+        <v>77.89569736201707</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>10.85598652957315</v>
+        <v>10.85598652957323</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>62.98543265302087</v>
+        <v>62.98543265302057</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>41.38527813112741</v>
+        <v>41.38527813112729</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.515065661985131</v>
+        <v>7.515065661985173</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>11.46313507063289</v>
+        <v>11.46313507063286</v>
       </c>
       <c r="E21">
-        <v>6.332524861799768</v>
+        <v>6.332524861799632</v>
       </c>
       <c r="F21">
-        <v>85.79286731012516</v>
+        <v>85.79286731012468</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>10.33366485556951</v>
+        <v>10.33366485556943</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>68.65872087275815</v>
+        <v>68.65872087275781</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>45.11598515210747</v>
+        <v>45.11598515210729</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.695530036948169</v>
+        <v>7.695530036948151</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>12.3164638502457</v>
+        <v>12.31646385024565</v>
       </c>
       <c r="E22">
         <v>6.442297450917675</v>
       </c>
       <c r="F22">
-        <v>91.48364508430048</v>
+        <v>91.48364508430021</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>10.04889287100831</v>
+        <v>10.04889287100827</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>72.65813644363939</v>
+        <v>72.65813644363924</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>47.74337667437856</v>
+        <v>47.74337667437845</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.601373391848265</v>
+        <v>7.601373391848274</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>11.84926541422326</v>
+        <v>11.84926541422335</v>
       </c>
       <c r="E23">
-        <v>6.379205899229485</v>
+        <v>6.379205899229522</v>
       </c>
       <c r="F23">
-        <v>88.37821662752272</v>
+        <v>88.37821662752306</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>10.19384079559329</v>
+        <v>10.19384079559326</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>70.48452342390715</v>
+        <v>70.48452342390731</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>46.31584058265143</v>
+        <v>46.31584058265149</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.203318346669701</v>
+        <v>7.20331834666964</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.28015545174848</v>
+        <v>10.28015545174845</v>
       </c>
       <c r="E24">
-        <v>6.216569083332755</v>
+        <v>6.216569083332855</v>
       </c>
       <c r="F24">
-        <v>77.7722791573277</v>
+        <v>77.77227915732773</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>10.86516799473748</v>
+        <v>10.86516799473747</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>62.89556745037292</v>
+        <v>62.89556745037297</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>41.32616936812545</v>
+        <v>41.32616936812543</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.709151046872138</v>
+        <v>6.709151046872168</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.785066347268234</v>
+        <v>8.785066347268263</v>
       </c>
       <c r="E25">
-        <v>6.118604640183748</v>
+        <v>6.118604640183681</v>
       </c>
       <c r="F25">
-        <v>67.43983464501953</v>
+        <v>67.43983464501959</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>11.72272443398657</v>
+        <v>11.72272443398649</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>55.22894152632185</v>
+        <v>55.22894152632188</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>36.28415336866041</v>
+        <v>36.28415336866045</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_54/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.300898404721245</v>
+        <v>6.316877050651288</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.74398603695886</v>
+        <v>7.652669375836068</v>
       </c>
       <c r="E2">
-        <v>6.076419277306131</v>
+        <v>5.783356910898172</v>
       </c>
       <c r="F2">
-        <v>60.13460527039513</v>
+        <v>59.81544965869035</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.932528409635792</v>
       </c>
       <c r="H2">
-        <v>12.41141522259081</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>12.54971755634216</v>
       </c>
       <c r="J2">
-        <v>49.61860998263072</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>49.24579276819458</v>
       </c>
       <c r="L2">
-        <v>32.59739922436266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>32.38673780622752</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.999591352203438</v>
+        <v>6.016104765555792</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.097938727478753</v>
+        <v>7.130397779315341</v>
       </c>
       <c r="E3">
-        <v>6.058421346307465</v>
+        <v>5.762218843303278</v>
       </c>
       <c r="F3">
-        <v>55.21057524167687</v>
+        <v>54.96807520615133</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.960560988300958</v>
       </c>
       <c r="H3">
-        <v>12.90173188980603</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>13.04204461405969</v>
       </c>
       <c r="J3">
-        <v>45.73222778820185</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>45.38381040517297</v>
       </c>
       <c r="L3">
-        <v>30.04593134485537</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>29.84933675941323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.803188927061856</v>
+        <v>5.820148930543099</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.780668763235901</v>
+        <v>6.82937150782861</v>
       </c>
       <c r="E4">
-        <v>6.051084155399584</v>
+        <v>5.752787065426575</v>
       </c>
       <c r="F4">
-        <v>52.16797929009034</v>
+        <v>51.97522375205493</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.977527817974208</v>
       </c>
       <c r="H4">
-        <v>13.21244426111289</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>13.3537105835412</v>
       </c>
       <c r="J4">
-        <v>43.281915194269</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>42.94767536434918</v>
       </c>
       <c r="L4">
-        <v>28.43848677395353</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>28.24993152427119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.720388993038926</v>
+        <v>5.737559346535441</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.654182728628173</v>
+        <v>6.709783649214534</v>
       </c>
       <c r="E5">
-        <v>6.04886915822446</v>
+        <v>5.749683227478348</v>
       </c>
       <c r="F5">
-        <v>50.91981831734333</v>
+        <v>50.78223722770595</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.98441367818427</v>
       </c>
       <c r="H5">
-        <v>13.34131117397638</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>13.48291536295322</v>
       </c>
       <c r="J5">
-        <v>42.26469746709572</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>41.93610574846419</v>
       </c>
       <c r="L5">
-        <v>27.77147753940747</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>27.58609172889832</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.706476088868603</v>
+        <v>5.72368305643575</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.633338189253972</v>
+        <v>6.690101512182796</v>
       </c>
       <c r="E6">
-        <v>6.048544336691835</v>
+        <v>5.749208838789407</v>
       </c>
       <c r="F6">
-        <v>50.71198039170989</v>
+        <v>50.59020413193647</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.9855562101925</v>
       </c>
       <c r="H6">
-        <v>13.36284145962912</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>13.50449915539623</v>
       </c>
       <c r="J6">
-        <v>42.0945942342064</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>41.76693429320321</v>
       </c>
       <c r="L6">
-        <v>27.65995551170574</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>27.4750905574799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.802083318936481</v>
+        <v>5.819046045750981</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.778952089590342</v>
+        <v>6.827746729353707</v>
       </c>
       <c r="E7">
-        <v>6.051051323433235</v>
+        <v>5.75274238185885</v>
       </c>
       <c r="F7">
-        <v>52.1511834943196</v>
+        <v>51.95870927935606</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.977620758410532</v>
       </c>
       <c r="H7">
-        <v>13.21417327948966</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>13.35544434205902</v>
       </c>
       <c r="J7">
-        <v>43.26827537622494</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>42.93411216201351</v>
       </c>
       <c r="L7">
-        <v>28.42954168108507</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>28.24102955992992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.199436683491831</v>
+        <v>6.215574101392363</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.503783624436064</v>
+        <v>7.463409426272759</v>
       </c>
       <c r="E8">
-        <v>6.069331520145208</v>
+        <v>5.775225718641982</v>
       </c>
       <c r="F8">
-        <v>58.43836930527468</v>
+        <v>58.14521395941301</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.942267515922777</v>
       </c>
       <c r="H8">
-        <v>12.57833694462754</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>12.71740488596794</v>
       </c>
       <c r="J8">
-        <v>48.29013797629268</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>47.9259524205594</v>
       </c>
       <c r="L8">
-        <v>31.72498712508001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>31.51933135914299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.883029158450876</v>
+        <v>6.898607535814808</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.274454874102705</v>
+        <v>9.155001181376337</v>
       </c>
       <c r="E9">
-        <v>6.145426942737062</v>
+        <v>5.85775952460842</v>
       </c>
       <c r="F9">
-        <v>70.84415468653033</v>
+        <v>70.36370596021952</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.868947706171526</v>
       </c>
       <c r="H9">
-        <v>11.42257040097767</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>11.55368540988976</v>
       </c>
       <c r="J9">
-        <v>57.78738168978364</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>57.35276915209381</v>
       </c>
       <c r="L9">
-        <v>37.96641712848245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>37.71922626624189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.317284653322527</v>
+        <v>7.333459101559398</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.6824318141204</v>
+        <v>10.53618737834671</v>
       </c>
       <c r="E10">
-        <v>6.251748688938838</v>
+        <v>5.96638211021182</v>
       </c>
       <c r="F10">
-        <v>80.51604455774751</v>
+        <v>79.87941584476064</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.808322712878006</v>
       </c>
       <c r="H10">
-        <v>10.6680131342976</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>10.78757771455171</v>
       </c>
       <c r="J10">
-        <v>64.88447044182337</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>64.37756953865699</v>
       </c>
       <c r="L10">
-        <v>42.63431484509309</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>42.3433902509611</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.496260882917462</v>
+        <v>7.513136509552338</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>11.38327497209316</v>
+        <v>11.22213997660273</v>
       </c>
       <c r="E11">
-        <v>6.323450879617713</v>
+        <v>6.037825005734144</v>
       </c>
       <c r="F11">
-        <v>85.25609492475336</v>
+        <v>84.53208813597274</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.77748997663868</v>
       </c>
       <c r="H11">
-        <v>10.36476280981369</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>10.47612107156927</v>
       </c>
       <c r="J11">
-        <v>68.27775538867792</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>67.72613713310365</v>
       </c>
       <c r="L11">
-        <v>44.8655607427054</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>44.54725948246182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.560756376502309</v>
+        <v>7.57800268454014</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11.66327246077468</v>
+        <v>11.49570023943499</v>
       </c>
       <c r="E12">
-        <v>6.356129055826718</v>
+        <v>6.070052161884893</v>
       </c>
       <c r="F12">
-        <v>87.13497720243231</v>
+        <v>86.37314248268669</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.765066918952265</v>
       </c>
       <c r="H12">
-        <v>10.2589858097268</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>10.36650852542059</v>
       </c>
       <c r="J12">
-        <v>69.60840290069902</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>69.03667230826699</v>
       </c>
       <c r="L12">
-        <v>45.74015546670063</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>45.40948543795614</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.547026654967503</v>
+        <v>7.564187252728023</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>11.60217813488644</v>
+        <v>11.43603900883974</v>
       </c>
       <c r="E13">
-        <v>6.348790792643586</v>
+        <v>6.062831411951762</v>
       </c>
       <c r="F13">
-        <v>86.72575423774104</v>
+        <v>85.97234257164035</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.767782308523436</v>
       </c>
       <c r="H13">
-        <v>10.28128422775112</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>10.38967308683052</v>
       </c>
       <c r="J13">
-        <v>69.31926551365302</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>68.7520485408011</v>
       </c>
       <c r="L13">
-        <v>45.5501377291071</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>45.2222460808507</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.501637771293555</v>
+        <v>7.518541376834687</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11.40596854067516</v>
+        <v>11.24432378326272</v>
       </c>
       <c r="E14">
-        <v>6.326009729810475</v>
+        <v>6.040355416473054</v>
       </c>
       <c r="F14">
-        <v>85.40869882632641</v>
+        <v>84.6816972239148</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.77648520014662</v>
       </c>
       <c r="H14">
-        <v>10.35585130753628</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>10.46691126288188</v>
       </c>
       <c r="J14">
-        <v>68.38613043628882</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>67.83293512890971</v>
       </c>
       <c r="L14">
-        <v>44.93680220879671</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>44.61753219362258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.473383323091473</v>
+        <v>7.490145227802595</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11.28793286592755</v>
+        <v>11.12891816061037</v>
       </c>
       <c r="E15">
-        <v>6.31286918152271</v>
+        <v>6.027347941061718</v>
       </c>
       <c r="F15">
-        <v>84.61434860098657</v>
+        <v>83.9027965392356</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.78170714030748</v>
       </c>
       <c r="H15">
-        <v>10.40284362648726</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>10.51543169287569</v>
       </c>
       <c r="J15">
-        <v>67.82142052387627</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>67.276331404814</v>
       </c>
       <c r="L15">
-        <v>44.56556732765958</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>44.25127466071869</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.305171198407034</v>
+        <v>7.32131133082279</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.63826668305208</v>
+        <v>10.49291373666653</v>
       </c>
       <c r="E16">
-        <v>6.247683080563965</v>
+        <v>5.962296445300273</v>
       </c>
       <c r="F16">
-        <v>80.21561425021258</v>
+        <v>79.58420815820558</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.810252174092403</v>
       </c>
       <c r="H16">
-        <v>10.68887038594383</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>10.80889087109461</v>
       </c>
       <c r="J16">
-        <v>64.66759666762462</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>64.16328229122485</v>
       </c>
       <c r="L16">
-        <v>42.49167971402124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>42.20233244693353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.196900081761645</v>
+        <v>7.212789226959841</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.25832228624231</v>
+        <v>10.12046278950514</v>
       </c>
       <c r="E17">
-        <v>6.214776071854235</v>
+        <v>5.929061837620815</v>
       </c>
       <c r="F17">
-        <v>77.62289981374542</v>
+        <v>77.03533751989491</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.826780100467446</v>
       </c>
       <c r="H17">
-        <v>10.87631890776889</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>10.99998911418754</v>
       </c>
       <c r="J17">
-        <v>62.7867477293953</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>62.303718985237</v>
       </c>
       <c r="L17">
-        <v>41.25459311821139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>40.97819571919041</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.132927684685947</v>
+        <v>7.148709207823248</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.04497996987758</v>
+        <v>9.91121100730493</v>
       </c>
       <c r="E18">
-        <v>6.197862362996196</v>
+        <v>5.911851052543569</v>
       </c>
       <c r="F18">
-        <v>76.16077993914161</v>
+        <v>75.5971023224247</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.83600315950195</v>
       </c>
       <c r="H18">
-        <v>10.98762136587942</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>11.11313853834333</v>
       </c>
       <c r="J18">
-        <v>61.71863444648832</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>61.24686168893258</v>
       </c>
       <c r="L18">
-        <v>40.5520356907275</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>40.28246200191543</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.110988942071045</v>
+        <v>7.126739560496333</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.973512570191076</v>
+        <v>9.841098390327941</v>
       </c>
       <c r="E19">
-        <v>6.19243815886781</v>
+        <v>5.906310472636281</v>
       </c>
       <c r="F19">
-        <v>75.66999661773121</v>
+        <v>75.11422079058029</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.839083238232093</v>
       </c>
       <c r="H19">
-        <v>11.02583677008503</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>11.15194198754093</v>
       </c>
       <c r="J19">
-        <v>61.35887724619369</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>60.89077277568605</v>
       </c>
       <c r="L19">
-        <v>40.31540352179685</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>40.04804965915616</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.208604640595842</v>
+        <v>7.224516502935136</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.29819936383238</v>
+        <v>10.15956680505565</v>
       </c>
       <c r="E20">
-        <v>6.218059740569684</v>
+        <v>5.932392361436206</v>
       </c>
       <c r="F20">
-        <v>77.89569736201707</v>
+        <v>77.30361696046144</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.825051497602765</v>
       </c>
       <c r="H20">
-        <v>10.85598652957323</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>10.97929584581178</v>
       </c>
       <c r="J20">
-        <v>62.98543265302057</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>62.5002469863139</v>
       </c>
       <c r="L20">
-        <v>41.38527813112729</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>41.10757112637537</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.515065661985173</v>
+        <v>7.532041328089778</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>11.46313507063286</v>
+        <v>11.30019720926795</v>
       </c>
       <c r="E21">
-        <v>6.332524861799632</v>
+        <v>6.046792738466172</v>
       </c>
       <c r="F21">
-        <v>85.79286731012468</v>
+        <v>85.05826813565054</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.773952431473968</v>
       </c>
       <c r="H21">
-        <v>10.33366485556943</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>10.44396370001668</v>
       </c>
       <c r="J21">
-        <v>68.65872087275781</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>68.1015126731964</v>
       </c>
       <c r="L21">
-        <v>45.11598515210729</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>44.79424920861931</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.695530036948151</v>
+        <v>7.713880778311162</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>12.31646385024565</v>
+        <v>12.13236712520139</v>
       </c>
       <c r="E22">
-        <v>6.442297450917675</v>
+        <v>6.154198958830626</v>
       </c>
       <c r="F22">
-        <v>91.48364508430021</v>
+        <v>90.62466939676931</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.735886055083601</v>
       </c>
       <c r="H22">
-        <v>10.04889287100827</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>10.14605087408249</v>
       </c>
       <c r="J22">
-        <v>72.65813644363924</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>72.03307091663866</v>
       </c>
       <c r="L22">
-        <v>47.74337667437845</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>47.37978110199398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.601373391848274</v>
+        <v>7.618898112511127</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>11.84926541422335</v>
+        <v>11.67722279469755</v>
       </c>
       <c r="E23">
-        <v>6.379205899229522</v>
+        <v>6.092701110378722</v>
       </c>
       <c r="F23">
-        <v>88.37821662752306</v>
+        <v>87.59010343523978</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.756784791883365</v>
       </c>
       <c r="H23">
-        <v>10.19384079559326</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>10.29862219428035</v>
       </c>
       <c r="J23">
-        <v>70.48452342390731</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>69.89858917096369</v>
       </c>
       <c r="L23">
-        <v>46.31584058265149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>45.97641847375416</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.20331834666964</v>
+        <v>7.219219826877055</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.28015545174845</v>
+        <v>10.14187304791291</v>
       </c>
       <c r="E24">
-        <v>6.216569083332855</v>
+        <v>5.930880850273049</v>
       </c>
       <c r="F24">
-        <v>77.77227915732773</v>
+        <v>77.18224536871962</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.825833850243115</v>
       </c>
       <c r="H24">
-        <v>10.86516799473747</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>10.98864123348219</v>
       </c>
       <c r="J24">
-        <v>62.89556745037297</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>62.41135989898081</v>
       </c>
       <c r="L24">
-        <v>41.32616936812543</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>41.04905631743181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.709151046872168</v>
+        <v>6.724743348474006</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.785066347268263</v>
+        <v>8.674524490285251</v>
       </c>
       <c r="E25">
-        <v>6.118604640183681</v>
+        <v>5.829478883922598</v>
       </c>
       <c r="F25">
-        <v>67.43983464501959</v>
+        <v>67.01084665203832</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.889557187008436</v>
       </c>
       <c r="H25">
-        <v>11.72272443398649</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>11.85663533235783</v>
       </c>
       <c r="J25">
-        <v>55.22894152632188</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>54.81556878079855</v>
       </c>
       <c r="L25">
-        <v>36.28415336866045</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>36.04963370817884</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_54/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.316877050651288</v>
+        <v>7.259901374004153</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.652669375836068</v>
+        <v>2.247208532191056</v>
       </c>
       <c r="E2">
-        <v>5.783356910898172</v>
+        <v>4.430624677909385</v>
       </c>
       <c r="F2">
-        <v>59.81544965869035</v>
+        <v>35.74003199219035</v>
       </c>
       <c r="G2">
-        <v>1.932528409635792</v>
+        <v>1.988191516122206</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>12.54971755634216</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>49.24579276819458</v>
+        <v>44.03629944191812</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>32.38673780622752</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>29.78005286837295</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>27.49077057355891</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.016104765555792</v>
+        <v>6.897424387636669</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.130397779315341</v>
+        <v>2.332737129556883</v>
       </c>
       <c r="E3">
-        <v>5.762218843303278</v>
+        <v>4.778430324970508</v>
       </c>
       <c r="F3">
-        <v>54.96807520615133</v>
+        <v>33.1070229671931</v>
       </c>
       <c r="G3">
-        <v>1.960560988300958</v>
+        <v>2.004790809736745</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>13.04204461405969</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>45.38381040517297</v>
+        <v>40.96875324805821</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>29.84933675941323</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>27.67460318405615</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>25.47771079414995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.820148930543099</v>
+        <v>6.669429101515191</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.82937150782861</v>
+        <v>2.401845623477459</v>
       </c>
       <c r="E4">
-        <v>5.752787065426575</v>
+        <v>4.994509033804257</v>
       </c>
       <c r="F4">
-        <v>51.97522375205493</v>
+        <v>31.59910592839291</v>
       </c>
       <c r="G4">
-        <v>1.977527817974208</v>
+        <v>2.015070920570043</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>13.3537105835412</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>42.94767536434918</v>
+        <v>38.9961703392874</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>28.24993152427119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>26.32418129166423</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>24.39372413167942</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.737559346535441</v>
+        <v>6.575260910877851</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.709783649214534</v>
+        <v>2.433422676306436</v>
       </c>
       <c r="E5">
-        <v>5.749683227478348</v>
+        <v>5.083325549246469</v>
       </c>
       <c r="F5">
-        <v>50.78223722770595</v>
+        <v>30.98494894166584</v>
       </c>
       <c r="G5">
-        <v>1.98441367818427</v>
+        <v>2.019290727942519</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13.48291536295322</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>41.93610574846419</v>
+        <v>38.16931541901432</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>27.58609172889832</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>25.75889924832432</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>23.95550970849656</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.72368305643575</v>
+        <v>6.559551951955528</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.690101512182796</v>
+        <v>2.438852654605904</v>
       </c>
       <c r="E6">
-        <v>5.749208838789407</v>
+        <v>5.09812310552793</v>
       </c>
       <c r="F6">
-        <v>50.59020413193647</v>
+        <v>30.88299191443852</v>
       </c>
       <c r="G6">
-        <v>1.9855562101925</v>
+        <v>2.019993497191188</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>13.50449915539623</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>41.76693429320321</v>
+        <v>38.03061069414125</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>27.4750905574799</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>25.6641175095476</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>23.88295977795837</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.819046045750981</v>
+        <v>6.668164051928298</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.827746729353707</v>
+        <v>2.402258561126673</v>
       </c>
       <c r="E7">
-        <v>5.75274238185885</v>
+        <v>4.995703593351326</v>
       </c>
       <c r="F7">
-        <v>51.95870927935606</v>
+        <v>31.59082174029171</v>
       </c>
       <c r="G7">
-        <v>1.977620758410532</v>
+        <v>2.015127696179389</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>13.35544434205902</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>42.93411216201351</v>
+        <v>38.98511300319133</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>28.24102955992992</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>26.31661891196017</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>24.38779987337551</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.215574101392363</v>
+        <v>7.136104694621753</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.463409426272759</v>
+        <v>2.272757682383603</v>
       </c>
       <c r="E8">
-        <v>5.775225718641982</v>
+        <v>4.550103549602835</v>
       </c>
       <c r="F8">
-        <v>58.14521395941301</v>
+        <v>34.80550753806034</v>
       </c>
       <c r="G8">
-        <v>1.942267515922777</v>
+        <v>1.993902102718873</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>12.71740488596794</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>47.9259524205594</v>
+        <v>42.99671015825833</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>31.51933135914299</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>29.06575756099747</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>26.74974180080416</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.898607535814808</v>
+        <v>8.007047871059124</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.155001181376337</v>
+        <v>2.834529097146701</v>
       </c>
       <c r="E9">
-        <v>5.85775952460842</v>
+        <v>3.69022797729601</v>
       </c>
       <c r="F9">
-        <v>70.36370596021952</v>
+        <v>41.50974546136008</v>
       </c>
       <c r="G9">
-        <v>1.868947706171526</v>
+        <v>1.952528074360625</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>11.55368540988976</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>57.35276915209381</v>
+        <v>50.18879958525076</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>37.71922626624189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>34.02444172887238</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>32.06509427311477</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.333459101559398</v>
+        <v>8.677371170897002</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.53618737834671</v>
+        <v>3.362036992508154</v>
       </c>
       <c r="E10">
-        <v>5.96638211021182</v>
+        <v>3.05884297862481</v>
       </c>
       <c r="F10">
-        <v>79.87941584476064</v>
+        <v>46.41733297980025</v>
       </c>
       <c r="G10">
-        <v>1.808322712878006</v>
+        <v>1.921515263646786</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>10.78757771455171</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>64.37756953865699</v>
+        <v>55.11608673837824</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>42.3433902509611</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>37.44663994710003</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>35.95802939936873</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.513136509552338</v>
+        <v>9.001260428884121</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>11.22213997660273</v>
+        <v>3.611286882648016</v>
       </c>
       <c r="E11">
-        <v>6.037825005734144</v>
+        <v>2.770614409957418</v>
       </c>
       <c r="F11">
-        <v>84.53208813597274</v>
+        <v>48.66971928551506</v>
       </c>
       <c r="G11">
-        <v>1.77748997663868</v>
+        <v>1.907047037904621</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>10.47612107156927</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>67.72613713310365</v>
+        <v>57.29594539850746</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>44.54725948246182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>38.96788971713623</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>37.74615196009796</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.57800268454014</v>
+        <v>9.121832568126958</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11.49570023943499</v>
+        <v>3.707484649565714</v>
       </c>
       <c r="E12">
-        <v>6.070052161884893</v>
+        <v>2.661404578200502</v>
       </c>
       <c r="F12">
-        <v>86.37314248268669</v>
+        <v>49.52828611045413</v>
       </c>
       <c r="G12">
-        <v>1.765066918952265</v>
+        <v>1.901491675031351</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>10.36650852542059</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>69.03667230826699</v>
+        <v>58.11424536857673</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>45.40948543795614</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>39.54017890297724</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>38.42804335946278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.564187252728023</v>
+        <v>9.095955947163972</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>11.43603900883974</v>
+        <v>3.686677097331206</v>
       </c>
       <c r="E13">
-        <v>6.062831411951762</v>
+        <v>2.684923245177265</v>
       </c>
       <c r="F13">
-        <v>85.97234257164035</v>
+        <v>49.34307456281289</v>
       </c>
       <c r="G13">
-        <v>1.767782308523436</v>
+        <v>1.902691989974087</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>10.38967308683052</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>68.7520485408011</v>
+        <v>57.93829707269803</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>45.2222460808507</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>39.4170692666338</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>38.28093002011587</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.518541376834687</v>
+        <v>9.011221019946657</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11.24432378326272</v>
+        <v>3.619161602478248</v>
       </c>
       <c r="E14">
-        <v>6.040355416473054</v>
+        <v>2.761629452115938</v>
       </c>
       <c r="F14">
-        <v>84.6816972239148</v>
+        <v>48.74022228609039</v>
       </c>
       <c r="G14">
-        <v>1.77648520014662</v>
+        <v>1.906591693695579</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>10.46691126288188</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>67.83293512890971</v>
+        <v>57.36339986340293</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>44.61753219362258</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>39.01503913403236</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>37.80214049330205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.490145227802595</v>
+        <v>8.959050891516075</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11.12891816061037</v>
+        <v>3.578058827936376</v>
       </c>
       <c r="E15">
-        <v>6.027347941061718</v>
+        <v>2.808612962881192</v>
       </c>
       <c r="F15">
-        <v>83.9027965392356</v>
+        <v>48.37178823486072</v>
       </c>
       <c r="G15">
-        <v>1.78170714030748</v>
+        <v>1.908969562694198</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>10.51543169287569</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>67.276331404814</v>
+        <v>57.01038279107981</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>44.25127466071869</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>38.76833758979821</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>37.50956839031077</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.32131133082279</v>
+        <v>8.655908082741135</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.49291373666653</v>
+        <v>3.345972667306574</v>
       </c>
       <c r="E16">
-        <v>5.962296445300273</v>
+        <v>3.077660534475653</v>
       </c>
       <c r="F16">
-        <v>79.58420815820558</v>
+        <v>46.27075410943338</v>
       </c>
       <c r="G16">
-        <v>1.810252174092403</v>
+        <v>1.922451567252222</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>10.80889087109461</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>64.16328229122485</v>
+        <v>54.97252415932694</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>42.20233244693353</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>37.34661470293494</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>35.84169927893985</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.212789226959841</v>
+        <v>8.466134899286597</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.12046278950514</v>
+        <v>3.206274293664328</v>
       </c>
       <c r="E17">
-        <v>5.929061837620815</v>
+        <v>3.242443044968071</v>
       </c>
       <c r="F17">
-        <v>77.03533751989491</v>
+        <v>44.98867022652512</v>
       </c>
       <c r="G17">
-        <v>1.826780100467446</v>
+        <v>1.930614276169821</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>10.99998911418754</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>62.303718985237</v>
+        <v>53.70767336570697</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>40.97819571919041</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>36.46618843961829</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>34.82436113530812</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.148709207823248</v>
+        <v>8.355555163110129</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.91121100730493</v>
+        <v>3.126762332270323</v>
       </c>
       <c r="E18">
-        <v>5.911851052543569</v>
+        <v>3.337113924504434</v>
       </c>
       <c r="F18">
-        <v>75.5971023224247</v>
+        <v>44.25291590271509</v>
       </c>
       <c r="G18">
-        <v>1.83600315950195</v>
+        <v>1.935277118380107</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>11.11313853834333</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>61.24686168893258</v>
+        <v>52.97424651112298</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>40.28246200191543</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>35.95635109602205</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>34.24066467146579</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.126739560496333</v>
+        <v>8.319608519362049</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.841098390327941</v>
+        <v>3.099972481905449</v>
       </c>
       <c r="E19">
-        <v>5.906310472636281</v>
+        <v>3.369150490399875</v>
       </c>
       <c r="F19">
-        <v>75.11422079058029</v>
+        <v>44.00401622432366</v>
       </c>
       <c r="G19">
-        <v>1.839083238232093</v>
+        <v>1.936851016246856</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>11.15194198754093</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>60.89077277568605</v>
+        <v>52.72485903178635</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>40.04804965915616</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>35.78310253719813</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>34.04322422777257</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.224516502935136</v>
+        <v>8.486483666494195</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.15956680505565</v>
+        <v>3.221055550853723</v>
       </c>
       <c r="E20">
-        <v>5.932392361436206</v>
+        <v>3.224912978873001</v>
       </c>
       <c r="F20">
-        <v>77.30361696046144</v>
+        <v>45.12496016376662</v>
       </c>
       <c r="G20">
-        <v>1.825051497602765</v>
+        <v>1.929748827454045</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>10.97929584581178</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>62.5002469863139</v>
+        <v>53.84292039517794</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>41.10757112637537</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>36.56025862468674</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>34.93249389927461</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.532041328089778</v>
+        <v>9.036165286931134</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>11.30019720926795</v>
+        <v>3.638938890774583</v>
       </c>
       <c r="E21">
-        <v>6.046792738466172</v>
+        <v>2.739098652633181</v>
       </c>
       <c r="F21">
-        <v>85.05826813565054</v>
+        <v>48.91711541123542</v>
       </c>
       <c r="G21">
-        <v>1.773952431473968</v>
+        <v>1.905448562895755</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>10.44396370001668</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>68.1015126731964</v>
+        <v>57.5324400283889</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>44.79424920861931</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>39.13321531246313</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>37.94262157337394</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.713880778311162</v>
+        <v>9.383359718480861</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>12.13236712520139</v>
+        <v>3.922939510108567</v>
       </c>
       <c r="E22">
-        <v>6.154198958830626</v>
+        <v>2.421527856519481</v>
       </c>
       <c r="F22">
-        <v>90.62466939676931</v>
+        <v>51.4302992413396</v>
       </c>
       <c r="G22">
-        <v>1.735886055083601</v>
+        <v>1.889104154136154</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>10.14605087408249</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>72.03307091663866</v>
+        <v>59.90310334973966</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>47.37978110199398</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>40.79366764704996</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>39.9392959153788</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.618898112511127</v>
+        <v>9.199123185405901</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>11.67722279469755</v>
+        <v>3.770171898607952</v>
       </c>
       <c r="E23">
-        <v>6.092701110378722</v>
+        <v>2.590908973235598</v>
       </c>
       <c r="F23">
-        <v>87.59010343523978</v>
+        <v>50.08463701111226</v>
       </c>
       <c r="G23">
-        <v>1.756784791883365</v>
+        <v>1.897879770420889</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>10.29862219428035</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>69.89858917096369</v>
+        <v>58.64088084705968</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>45.97641847375416</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>39.9088530562659</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>38.87000161235611</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.219219826877055</v>
+        <v>8.477288594936457</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.14187304791291</v>
+        <v>3.214370479066728</v>
       </c>
       <c r="E24">
-        <v>5.930880850273049</v>
+        <v>3.232838524778213</v>
       </c>
       <c r="F24">
-        <v>77.18224536871962</v>
+        <v>45.06333952999725</v>
       </c>
       <c r="G24">
-        <v>1.825833850243115</v>
+        <v>1.930140188507329</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>10.98864123348219</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>62.41135989898081</v>
+        <v>53.78179479398047</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>41.04905631743181</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>36.51774101683266</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>34.88360355029217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.724743348474006</v>
+        <v>7.776843180182127</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.674524490285251</v>
+        <v>2.645948532588041</v>
       </c>
       <c r="E25">
-        <v>5.829478883922598</v>
+        <v>3.922230513085973</v>
       </c>
       <c r="F25">
-        <v>67.01084665203832</v>
+        <v>39.70556153739327</v>
       </c>
       <c r="G25">
-        <v>1.889557187008436</v>
+        <v>1.96376442884002</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.85663533235783</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>54.81556878079855</v>
+        <v>48.3103416539508</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>36.04963370817884</v>
+        <v>32.72534673314166</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>30.63463495591806</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_54/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.259901374004153</v>
+        <v>9.513596190743055</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.247208532191056</v>
+        <v>6.235755910884288</v>
       </c>
       <c r="E2">
-        <v>4.430624677909385</v>
+        <v>7.862339009315527</v>
       </c>
       <c r="F2">
-        <v>35.74003199219035</v>
+        <v>42.78782631754284</v>
       </c>
       <c r="G2">
-        <v>1.988191516122206</v>
+        <v>2.107635365949232</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>28.30014663388818</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>44.03629944191812</v>
+        <v>15.99364431305842</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>8.290076616620766</v>
       </c>
       <c r="M2">
-        <v>29.78005286837295</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>27.49077057355891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.897424387636669</v>
+        <v>9.03871498712477</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.332737129556883</v>
+        <v>6.228111247495425</v>
       </c>
       <c r="E3">
-        <v>4.778430324970508</v>
+        <v>7.680545206150587</v>
       </c>
       <c r="F3">
-        <v>33.1070229671931</v>
+        <v>40.91920928838416</v>
       </c>
       <c r="G3">
-        <v>2.004790809736745</v>
+        <v>2.118386732772324</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>27.679126087709</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>40.96875324805821</v>
+        <v>14.86958425130245</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.951821243482904</v>
       </c>
       <c r="M3">
-        <v>27.67460318405615</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>25.47771079414995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.669429101515191</v>
+        <v>8.741717637755858</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.401845623477459</v>
+        <v>6.224560150355456</v>
       </c>
       <c r="E4">
-        <v>4.994509033804257</v>
+        <v>7.568925553405355</v>
       </c>
       <c r="F4">
-        <v>31.59910592839291</v>
+        <v>39.76159465522386</v>
       </c>
       <c r="G4">
-        <v>2.015070920570043</v>
+        <v>2.125137068785945</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>27.30489351710266</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>38.9961703392874</v>
+        <v>14.14501540066697</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7.743693087099249</v>
       </c>
       <c r="M4">
-        <v>26.32418129166423</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>24.39372413167942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.575260910877851</v>
+        <v>8.619498319707288</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.433422676306436</v>
+        <v>6.223384200567083</v>
       </c>
       <c r="E5">
-        <v>5.083325549246469</v>
+        <v>7.523386083724882</v>
       </c>
       <c r="F5">
-        <v>30.98494894166584</v>
+        <v>39.28769947457613</v>
       </c>
       <c r="G5">
-        <v>2.019290727942519</v>
+        <v>2.127927892468864</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>27.15418742876771</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>38.16931541901432</v>
+        <v>13.84095466700317</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>7.658866029332934</v>
       </c>
       <c r="M5">
-        <v>25.75889924832432</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>23.95550970849656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.559551951955528</v>
+        <v>8.599137606785542</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.438852654605904</v>
+        <v>6.223204858518725</v>
       </c>
       <c r="E6">
-        <v>5.09812310552793</v>
+        <v>7.51581958964735</v>
       </c>
       <c r="F6">
-        <v>30.88299191443852</v>
+        <v>39.20889325020636</v>
       </c>
       <c r="G6">
-        <v>2.019993497191188</v>
+        <v>2.128393793903552</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>27.12927189595599</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>38.03061069414125</v>
+        <v>13.78993048092117</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>7.644782865883055</v>
       </c>
       <c r="M6">
-        <v>25.6641175095476</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>23.88295977795837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.668164051928298</v>
+        <v>8.740073916172884</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.402258561126673</v>
+        <v>6.224543213830588</v>
       </c>
       <c r="E7">
-        <v>4.995703593351326</v>
+        <v>7.568311676093725</v>
       </c>
       <c r="F7">
-        <v>31.59082174029171</v>
+        <v>39.75521165298336</v>
       </c>
       <c r="G7">
-        <v>2.015127696179389</v>
+        <v>2.12517454158865</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>27.30285374134457</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>38.98511300319133</v>
+        <v>14.14095051890719</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>7.742548994738274</v>
       </c>
       <c r="M7">
-        <v>26.31661891196017</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>24.38779987337551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.136104694621753</v>
+        <v>9.351075655699963</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.272757682383603</v>
+        <v>6.23287274704564</v>
       </c>
       <c r="E8">
-        <v>4.550103549602835</v>
+        <v>7.799621292319872</v>
       </c>
       <c r="F8">
-        <v>34.80550753806034</v>
+        <v>42.14588950594128</v>
       </c>
       <c r="G8">
-        <v>1.993902102718873</v>
+        <v>2.111313121350287</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>28.08455854623194</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>42.99671015825833</v>
+        <v>15.61311580599433</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>8.17359080933559</v>
       </c>
       <c r="M8">
-        <v>29.06575756099747</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>26.74974180080416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.007047871059124</v>
+        <v>10.50023195933569</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.834529097146701</v>
+        <v>6.259067507907397</v>
       </c>
       <c r="E9">
-        <v>3.69022797729601</v>
+        <v>8.256073931677253</v>
       </c>
       <c r="F9">
-        <v>41.50974546136008</v>
+        <v>46.73837476204405</v>
       </c>
       <c r="G9">
-        <v>1.952528074360625</v>
+        <v>2.085186122559656</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>29.67333785915818</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>50.18879958525076</v>
+        <v>18.23426176728711</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>9.01192550718168</v>
       </c>
       <c r="M9">
-        <v>34.02444172887238</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>32.06509427311477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.677371170897002</v>
+        <v>11.37431492190475</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.362036992508154</v>
+        <v>6.285537424546097</v>
       </c>
       <c r="E10">
-        <v>3.05884297862481</v>
+        <v>8.597818076887446</v>
       </c>
       <c r="F10">
-        <v>46.41733297980025</v>
+        <v>50.04240992681617</v>
       </c>
       <c r="G10">
-        <v>1.921515263646786</v>
+        <v>2.066437355577402</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>30.87533438003353</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>55.11608673837824</v>
+        <v>20.00887210300601</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>9.666950680782509</v>
       </c>
       <c r="M10">
-        <v>37.44663994710003</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>35.95802939936873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.001260428884121</v>
+        <v>11.80922707527241</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.611286882648016</v>
+        <v>6.299453473799021</v>
       </c>
       <c r="E11">
-        <v>2.770614409957418</v>
+        <v>8.7559396429616</v>
       </c>
       <c r="F11">
-        <v>48.66971928551506</v>
+        <v>51.52988416203671</v>
       </c>
       <c r="G11">
-        <v>1.907047037904621</v>
+        <v>2.057954882994217</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>31.43021235143742</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>57.29594539850746</v>
+        <v>20.78608765337041</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.04076657497095</v>
       </c>
       <c r="M11">
-        <v>38.96788971713623</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>37.74615196009796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.121832568126958</v>
+        <v>11.9711667046368</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.707484649565714</v>
+        <v>6.305021679496205</v>
       </c>
       <c r="E12">
-        <v>2.661404578200502</v>
+        <v>8.816325614422748</v>
       </c>
       <c r="F12">
-        <v>49.52828611045413</v>
+        <v>52.09102113012889</v>
       </c>
       <c r="G12">
-        <v>1.901491675031351</v>
+        <v>2.054744678976337</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>31.64156589287563</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>58.11424536857673</v>
+        <v>21.07633077231507</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.18023739856269</v>
       </c>
       <c r="M12">
-        <v>39.54017890297724</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>38.42804335946278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.095955947163972</v>
+        <v>11.93641110782057</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.686677097331206</v>
+        <v>6.303808693016633</v>
       </c>
       <c r="E13">
-        <v>2.684923245177265</v>
+        <v>8.803295552770589</v>
       </c>
       <c r="F13">
-        <v>49.34307456281289</v>
+        <v>51.97026251732152</v>
       </c>
       <c r="G13">
-        <v>1.902691989974087</v>
+        <v>2.055436050569724</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>31.59599081802484</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>57.93829707269803</v>
+        <v>21.01399848120921</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.15029078229592</v>
       </c>
       <c r="M13">
-        <v>39.4170692666338</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>38.28093002011587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.011221019946657</v>
+        <v>11.82260460182582</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.619161602478248</v>
+        <v>6.299905413015379</v>
       </c>
       <c r="E14">
-        <v>2.761629452115938</v>
+        <v>8.760896639318897</v>
       </c>
       <c r="F14">
-        <v>48.74022228609039</v>
+        <v>51.57609110366287</v>
       </c>
       <c r="G14">
-        <v>1.906591693695579</v>
+        <v>2.05769076842919</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>31.44757530266923</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>57.36339986340293</v>
+        <v>20.81004618251785</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.05228206319428</v>
       </c>
       <c r="M14">
-        <v>39.01503913403236</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>37.80214049330205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.959050891516075</v>
+        <v>11.75253900195779</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.578058827936376</v>
+        <v>6.29755433203021</v>
       </c>
       <c r="E15">
-        <v>2.808612962881192</v>
+        <v>8.734996437127073</v>
       </c>
       <c r="F15">
-        <v>48.37178823486072</v>
+        <v>51.33437625482529</v>
       </c>
       <c r="G15">
-        <v>1.908969562694198</v>
+        <v>2.059071947322962</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>31.35682974674838</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>57.01038279107981</v>
+        <v>20.68459724499237</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.991980694764717</v>
       </c>
       <c r="M15">
-        <v>38.76833758979821</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>37.50956839031077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.655908082741135</v>
+        <v>11.3455026162161</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.345972667306574</v>
+        <v>6.284668097355807</v>
       </c>
       <c r="E16">
-        <v>3.077660534475653</v>
+        <v>8.587548321628333</v>
       </c>
       <c r="F16">
-        <v>46.27075410943338</v>
+        <v>49.94489298819004</v>
       </c>
       <c r="G16">
-        <v>1.922451567252222</v>
+        <v>2.066992246783091</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>30.83923984857001</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>54.97252415932694</v>
+        <v>19.95749513169744</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.642223107563048</v>
       </c>
       <c r="M16">
-        <v>37.34661470293494</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>35.84169927893985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.466134899286597</v>
+        <v>11.09080712264745</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.206274293664328</v>
+        <v>6.277262504334274</v>
       </c>
       <c r="E17">
-        <v>3.242443044968071</v>
+        <v>8.497858602676649</v>
       </c>
       <c r="F17">
-        <v>44.98867022652512</v>
+        <v>49.08854265189636</v>
       </c>
       <c r="G17">
-        <v>1.930614276169821</v>
+        <v>2.071859789909985</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>30.52382691333312</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>53.70767336570697</v>
+        <v>19.50391161403849</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.4443143257147</v>
       </c>
       <c r="M17">
-        <v>36.46618843961829</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>34.82436113530812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.355555163110129</v>
+        <v>10.9561771613986</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.126762332270323</v>
+        <v>6.273177546191875</v>
       </c>
       <c r="E18">
-        <v>3.337113924504434</v>
+        <v>8.446513188344399</v>
       </c>
       <c r="F18">
-        <v>44.25291590271509</v>
+        <v>48.59451643536698</v>
       </c>
       <c r="G18">
-        <v>1.935277118380107</v>
+        <v>2.074664160235828</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>30.34316473124552</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>52.97424651112298</v>
+        <v>19.24017599423698</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.353284405194598</v>
       </c>
       <c r="M18">
-        <v>35.95635109602205</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>34.24066467146579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.319608519362049</v>
+        <v>10.91521795778447</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.099972481905449</v>
+        <v>6.27182360093379</v>
       </c>
       <c r="E19">
-        <v>3.369150490399875</v>
+        <v>8.429166513015877</v>
       </c>
       <c r="F19">
-        <v>44.00401622432366</v>
+        <v>48.42699293791586</v>
       </c>
       <c r="G19">
-        <v>1.936851016246856</v>
+        <v>2.07561461228824</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>30.28212360912911</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>52.72485903178635</v>
+        <v>19.15038357488498</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.322431650526951</v>
       </c>
       <c r="M19">
-        <v>35.78310253719813</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>34.04322422777257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.486483666494195</v>
+        <v>11.11811183522375</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.221055550853723</v>
+        <v>6.278032579147346</v>
       </c>
       <c r="E20">
-        <v>3.224912978873001</v>
+        <v>8.507380357696659</v>
       </c>
       <c r="F20">
-        <v>45.12496016376662</v>
+        <v>49.17985502592639</v>
       </c>
       <c r="G20">
-        <v>1.929748827454045</v>
+        <v>2.071341178947263</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>30.55732460065252</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>53.84292039517794</v>
+        <v>19.55248921243065</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9.461146799527084</v>
       </c>
       <c r="M20">
-        <v>36.56025862468674</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>34.93249389927461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.036165286931134</v>
+        <v>11.85610632612391</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.638938890774583</v>
+        <v>6.301043552017608</v>
       </c>
       <c r="E21">
-        <v>2.739098652633181</v>
+        <v>8.773335310463894</v>
       </c>
       <c r="F21">
-        <v>48.91711541123542</v>
+        <v>51.69192545872898</v>
       </c>
       <c r="G21">
-        <v>1.905448562895755</v>
+        <v>2.057028491850886</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>31.49113434934692</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>57.5324400283889</v>
+        <v>20.87006026462829</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.08112528576893</v>
       </c>
       <c r="M21">
-        <v>39.13321531246313</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>37.94262157337394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.383359718480861</v>
+        <v>12.32243204059713</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.922939510108567</v>
+        <v>6.317838483433593</v>
       </c>
       <c r="E22">
-        <v>2.421527856519481</v>
+        <v>8.950192085437575</v>
       </c>
       <c r="F22">
-        <v>51.4302992413396</v>
+        <v>53.32137913938181</v>
       </c>
       <c r="G22">
-        <v>1.889104154136154</v>
+        <v>2.04768287068644</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>32.10867748779958</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>59.90310334973966</v>
+        <v>21.70757615364511</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.48332050053222</v>
       </c>
       <c r="M22">
-        <v>40.79366764704996</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>39.9392959153788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.199123185405901</v>
+        <v>12.07497932410617</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.770171898607952</v>
+        <v>6.308703552002306</v>
       </c>
       <c r="E23">
-        <v>2.590908973235598</v>
+        <v>8.85547480770809</v>
       </c>
       <c r="F23">
-        <v>50.08463701111226</v>
+        <v>52.45277483157781</v>
       </c>
       <c r="G23">
-        <v>1.897879770420889</v>
+        <v>2.052671758614495</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>31.77838858155024</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>58.64088084705968</v>
+        <v>21.26264580224025</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.2697298887237</v>
       </c>
       <c r="M23">
-        <v>39.9088530562659</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>38.87000161235611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.477288594936457</v>
+        <v>11.10577338038653</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.214370479066728</v>
+        <v>6.277683892811246</v>
       </c>
       <c r="E24">
-        <v>3.232838524778213</v>
+        <v>8.503074901224734</v>
       </c>
       <c r="F24">
-        <v>45.06333952999725</v>
+        <v>49.13857799963063</v>
       </c>
       <c r="G24">
-        <v>1.930140188507329</v>
+        <v>2.071575624064566</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>30.54217820517765</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>53.78179479398047</v>
+        <v>19.53053653229802</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>9.453537546269095</v>
       </c>
       <c r="M24">
-        <v>36.51774101683266</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>34.88360355029217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.776843180182127</v>
+        <v>10.19532644249094</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.645948532588041</v>
+        <v>6.250807371076056</v>
       </c>
       <c r="E25">
-        <v>3.922230513085973</v>
+        <v>8.131848169168627</v>
       </c>
       <c r="F25">
-        <v>39.70556153739327</v>
+        <v>45.5078053194265</v>
       </c>
       <c r="G25">
-        <v>1.96376442884002</v>
+        <v>2.092160225511672</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>29.23753694484229</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>48.3103416539508</v>
+        <v>17.55256340200702</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>8.786291219851815</v>
       </c>
       <c r="M25">
-        <v>32.72534673314166</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>30.63463495591806</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_54/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.513596190743055</v>
+        <v>12.75242533404057</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.235755910884288</v>
+        <v>7.998920270634828</v>
       </c>
       <c r="E2">
-        <v>7.862339009315527</v>
+        <v>10.32980958153274</v>
       </c>
       <c r="F2">
-        <v>42.78782631754284</v>
+        <v>41.96376400327019</v>
       </c>
       <c r="G2">
-        <v>2.107635365949232</v>
+        <v>3.709720673870575</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>28.30014663388818</v>
+        <v>33.08355626267235</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.99364431305842</v>
+        <v>13.29379090718554</v>
       </c>
       <c r="L2">
-        <v>8.290076616620766</v>
+        <v>10.56304082407664</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.03871498712477</v>
+        <v>12.72039652785334</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.228111247495425</v>
+        <v>7.992164242515012</v>
       </c>
       <c r="E3">
-        <v>7.680545206150587</v>
+        <v>10.28483599605408</v>
       </c>
       <c r="F3">
-        <v>40.91920928838416</v>
+        <v>41.51039658091621</v>
       </c>
       <c r="G3">
-        <v>2.118386732772324</v>
+        <v>3.713441198970362</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>27.679126087709</v>
+        <v>32.95916790202578</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.86958425130245</v>
+        <v>13.08001272797512</v>
       </c>
       <c r="L3">
-        <v>7.951821243482904</v>
+        <v>10.52933145534091</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.741717637755858</v>
+        <v>12.70442667742202</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.224560150355456</v>
+        <v>7.988212781880506</v>
       </c>
       <c r="E4">
-        <v>7.568925553405355</v>
+        <v>10.2564717128333</v>
       </c>
       <c r="F4">
-        <v>39.76159465522386</v>
+        <v>41.23773778493378</v>
       </c>
       <c r="G4">
-        <v>2.125137068785945</v>
+        <v>3.715843385999123</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>27.30489351710266</v>
+        <v>32.88609577997138</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.14501540066697</v>
+        <v>12.95202536383974</v>
       </c>
       <c r="L4">
-        <v>7.743693087099249</v>
+        <v>10.51106533763075</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.619498319707288</v>
+        <v>12.69885524639157</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.223384200567083</v>
+        <v>7.986651754929225</v>
       </c>
       <c r="E5">
-        <v>7.523386083724882</v>
+        <v>10.24472396462557</v>
       </c>
       <c r="F5">
-        <v>39.28769947457613</v>
+        <v>41.12816116046846</v>
       </c>
       <c r="G5">
-        <v>2.127927892468864</v>
+        <v>3.716852023794093</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>27.15418742876771</v>
+        <v>32.85715875409383</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.84095466700317</v>
+        <v>12.90076995908587</v>
       </c>
       <c r="L5">
-        <v>7.658866029332934</v>
+        <v>10.50423802787787</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.599137606785542</v>
+        <v>12.69798685649458</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.223204858518725</v>
+        <v>7.986395512947109</v>
       </c>
       <c r="E6">
-        <v>7.51581958964735</v>
+        <v>10.24276182875473</v>
       </c>
       <c r="F6">
-        <v>39.20889325020636</v>
+        <v>41.11006149484344</v>
       </c>
       <c r="G6">
-        <v>2.128393793903552</v>
+        <v>3.71702130609005</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>27.12927189595599</v>
+        <v>32.85240481632607</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.78993048092117</v>
+        <v>12.89231565255234</v>
       </c>
       <c r="L6">
-        <v>7.644782865883055</v>
+        <v>10.50314170805159</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.740073916172884</v>
+        <v>12.70434773916439</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.224543213830588</v>
+        <v>7.988191530373823</v>
       </c>
       <c r="E7">
-        <v>7.568311676093725</v>
+        <v>10.25631404459326</v>
       </c>
       <c r="F7">
-        <v>39.75521165298336</v>
+        <v>41.23625365820091</v>
       </c>
       <c r="G7">
-        <v>2.12517454158865</v>
+        <v>3.715856868329509</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>27.30285374134457</v>
+        <v>32.88570210983634</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.14095051890719</v>
+        <v>12.95133036856567</v>
       </c>
       <c r="L7">
-        <v>7.742548994738274</v>
+        <v>10.51097076098035</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.351075655699963</v>
+        <v>12.74061923750409</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.23287274704564</v>
+        <v>7.996549802875549</v>
       </c>
       <c r="E8">
-        <v>7.799621292319872</v>
+        <v>10.31445817153619</v>
       </c>
       <c r="F8">
-        <v>42.14588950594128</v>
+        <v>41.80631751387369</v>
       </c>
       <c r="G8">
-        <v>2.111313121350287</v>
+        <v>3.710979135990818</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>28.08455854623194</v>
+        <v>33.03998787109376</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.61311580599433</v>
+        <v>13.21944771777121</v>
       </c>
       <c r="L8">
-        <v>8.17359080933559</v>
+        <v>10.55091627289668</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.50023195933569</v>
+        <v>12.84071634718517</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.259067507907397</v>
+        <v>8.014513289999442</v>
       </c>
       <c r="E9">
-        <v>8.256073931677253</v>
+        <v>10.42254628392938</v>
       </c>
       <c r="F9">
-        <v>46.73837476204405</v>
+        <v>42.9650698425578</v>
       </c>
       <c r="G9">
-        <v>2.085186122559656</v>
+        <v>3.702343211932766</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>29.67333785915818</v>
+        <v>33.36827869891567</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>18.23426176728711</v>
+        <v>13.76773489253133</v>
       </c>
       <c r="L9">
-        <v>9.01192550718168</v>
+        <v>10.6482994083494</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.37431492190475</v>
+        <v>12.93137159490391</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.285537424546097</v>
+        <v>8.028686474330735</v>
       </c>
       <c r="E10">
-        <v>8.597818076887446</v>
+        <v>10.49837599569955</v>
       </c>
       <c r="F10">
-        <v>50.04240992681617</v>
+        <v>43.83519897403432</v>
       </c>
       <c r="G10">
-        <v>2.066437355577402</v>
+        <v>3.696557704532085</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>30.87533438003353</v>
+        <v>33.624488610851</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>20.00887210300601</v>
+        <v>14.17962518738002</v>
       </c>
       <c r="L10">
-        <v>9.666950680782509</v>
+        <v>10.73109137072144</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.80922707527241</v>
+        <v>12.9761923642634</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.299453473799021</v>
+        <v>8.035349304271994</v>
       </c>
       <c r="E11">
-        <v>8.7559396429616</v>
+        <v>10.53210246473562</v>
       </c>
       <c r="F11">
-        <v>51.52988416203671</v>
+        <v>44.23379743398274</v>
       </c>
       <c r="G11">
-        <v>2.057954882994217</v>
+        <v>3.694045633341382</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>31.43021235143742</v>
+        <v>33.74414436287958</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>20.78608765337041</v>
+        <v>14.3679995448055</v>
       </c>
       <c r="L11">
-        <v>10.04076657497095</v>
+        <v>10.77110529689645</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.9711667046368</v>
+        <v>12.99366688039601</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.305021679496205</v>
+        <v>8.037903519947568</v>
       </c>
       <c r="E12">
-        <v>8.816325614422748</v>
+        <v>10.54476371879815</v>
       </c>
       <c r="F12">
-        <v>52.09102113012889</v>
+        <v>44.38502313673447</v>
       </c>
       <c r="G12">
-        <v>2.054744678976337</v>
+        <v>3.693111483840089</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>31.64156589287563</v>
+        <v>33.78988616922742</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>21.07633077231507</v>
+        <v>14.43939759657026</v>
       </c>
       <c r="L12">
-        <v>10.18023739856269</v>
+        <v>10.78658694701312</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.93641110782057</v>
+        <v>12.98988132789044</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.303808693016633</v>
+        <v>8.037352036035026</v>
       </c>
       <c r="E13">
-        <v>8.803295552770589</v>
+        <v>10.54204178831806</v>
       </c>
       <c r="F13">
-        <v>51.97026251732152</v>
+        <v>44.35244309474866</v>
       </c>
       <c r="G13">
-        <v>2.055436050569724</v>
+        <v>3.693311910059665</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>31.59599081802484</v>
+        <v>33.78001595144934</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>21.01399848120921</v>
+        <v>14.42401910585182</v>
       </c>
       <c r="L13">
-        <v>10.15029078229592</v>
+        <v>10.7832382008324</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.82260460182582</v>
+        <v>12.9776200232325</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.299905413015379</v>
+        <v>8.035558815965947</v>
       </c>
       <c r="E14">
-        <v>8.760896639318897</v>
+        <v>10.53314632094194</v>
       </c>
       <c r="F14">
-        <v>51.57609110366287</v>
+        <v>44.24623379706535</v>
       </c>
       <c r="G14">
-        <v>2.05769076842919</v>
+        <v>3.693968437857349</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>31.44757530266923</v>
+        <v>33.74789902790995</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>20.81004618251785</v>
+        <v>14.37387265349099</v>
       </c>
       <c r="L14">
-        <v>10.05228206319428</v>
+        <v>10.77237243590356</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.75253900195779</v>
+        <v>12.97017457393681</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.29755433203021</v>
+        <v>8.034464478011953</v>
       </c>
       <c r="E15">
-        <v>8.734996437127073</v>
+        <v>10.52768324531076</v>
       </c>
       <c r="F15">
-        <v>51.33437625482529</v>
+        <v>44.18121130878484</v>
       </c>
       <c r="G15">
-        <v>2.059071947322962</v>
+        <v>3.694372806086342</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>31.35682974674838</v>
+        <v>33.72828210624082</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>20.68459724499237</v>
+        <v>14.34316262319826</v>
       </c>
       <c r="L15">
-        <v>9.991980694764717</v>
+        <v>10.76575944519564</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.3455026162161</v>
+        <v>12.92851341432033</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.284668097355807</v>
+        <v>8.028255392072847</v>
       </c>
       <c r="E16">
-        <v>8.587548321628333</v>
+        <v>10.4961564487399</v>
       </c>
       <c r="F16">
-        <v>49.94489298819004</v>
+        <v>43.80919569335384</v>
       </c>
       <c r="G16">
-        <v>2.066992246783091</v>
+        <v>3.696724275465949</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>30.83923984857001</v>
+        <v>33.61672997619719</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>19.95749513169744</v>
+        <v>14.16732781568049</v>
       </c>
       <c r="L16">
-        <v>9.642223107563048</v>
+        <v>10.72852293648538</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.09080712264745</v>
+        <v>12.90386382584117</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.277262504334274</v>
+        <v>8.024501612709299</v>
       </c>
       <c r="E17">
-        <v>8.497858602676649</v>
+        <v>10.47661909514002</v>
       </c>
       <c r="F17">
-        <v>49.08854265189636</v>
+        <v>43.58160526305215</v>
       </c>
       <c r="G17">
-        <v>2.071859789909985</v>
+        <v>3.698197428902162</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>30.52382691333312</v>
+        <v>33.54908060968128</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>19.50391161403849</v>
+        <v>14.05965848637533</v>
       </c>
       <c r="L17">
-        <v>9.4443143257147</v>
+        <v>10.70627566046727</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.9561771613986</v>
+        <v>12.89002395912529</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.273177546191875</v>
+        <v>8.022362801053804</v>
       </c>
       <c r="E18">
-        <v>8.446513188344399</v>
+        <v>10.46530933860346</v>
       </c>
       <c r="F18">
-        <v>48.59451643536698</v>
+        <v>43.45096899050867</v>
       </c>
       <c r="G18">
-        <v>2.074664160235828</v>
+        <v>3.699056028950161</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>30.34316473124552</v>
+        <v>33.51046368781064</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>19.24017599423698</v>
+        <v>13.99782899488349</v>
       </c>
       <c r="L18">
-        <v>9.353284405194598</v>
+        <v>10.69370151418284</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.91521795778447</v>
+        <v>12.88539644248842</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.27182360093379</v>
+        <v>8.021642110717639</v>
       </c>
       <c r="E19">
-        <v>8.429166513015877</v>
+        <v>10.461467606727</v>
       </c>
       <c r="F19">
-        <v>48.42699293791586</v>
+        <v>43.40678724443384</v>
       </c>
       <c r="G19">
-        <v>2.07561461228824</v>
+        <v>3.69934867700652</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>30.28212360912911</v>
+        <v>33.4974394846152</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>19.15038357488498</v>
+        <v>13.97691406889166</v>
       </c>
       <c r="L19">
-        <v>9.322431650526951</v>
+        <v>10.68948249721756</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.11811183522375</v>
+        <v>12.90645293501308</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.278032579147346</v>
+        <v>8.024899110466087</v>
       </c>
       <c r="E20">
-        <v>8.507380357696659</v>
+        <v>10.47870636921605</v>
       </c>
       <c r="F20">
-        <v>49.17985502592639</v>
+        <v>43.60580576916279</v>
       </c>
       <c r="G20">
-        <v>2.071341178947263</v>
+        <v>3.698039442428382</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>30.55732460065252</v>
+        <v>33.5562517657818</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>19.55248921243065</v>
+        <v>14.07111040222349</v>
       </c>
       <c r="L20">
-        <v>9.461146799527084</v>
+        <v>10.70862101796079</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.85610632612391</v>
+        <v>12.98120795387306</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.301043552017608</v>
+        <v>8.036084681545287</v>
       </c>
       <c r="E21">
-        <v>8.773335310463894</v>
+        <v>10.53576212423808</v>
       </c>
       <c r="F21">
-        <v>51.69192545872898</v>
+        <v>44.27742320545989</v>
       </c>
       <c r="G21">
-        <v>2.057028491850886</v>
+        <v>3.693775136024263</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>31.49113434934692</v>
+        <v>33.75732098441163</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>20.87006026462829</v>
+        <v>14.3886007449029</v>
       </c>
       <c r="L21">
-        <v>10.08112528576893</v>
+        <v>10.77555511243842</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.32243204059713</v>
+        <v>13.03298326323099</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.317838483433593</v>
+        <v>8.043576714168344</v>
       </c>
       <c r="E22">
-        <v>8.950192085437575</v>
+        <v>10.57240902292871</v>
       </c>
       <c r="F22">
-        <v>53.32137913938181</v>
+        <v>44.7179739074428</v>
       </c>
       <c r="G22">
-        <v>2.04768287068644</v>
+        <v>3.691087888589482</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>32.10867748779958</v>
+        <v>33.89123442159154</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>21.70757615364511</v>
+        <v>14.59644164520602</v>
       </c>
       <c r="L22">
-        <v>10.48332050053222</v>
+        <v>10.82121499779597</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.07497932410617</v>
+        <v>13.00508730187217</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.308703552002306</v>
+        <v>8.039561404016538</v>
       </c>
       <c r="E23">
-        <v>8.85547480770809</v>
+        <v>10.5529085467814</v>
       </c>
       <c r="F23">
-        <v>52.45277483157781</v>
+        <v>44.48273368643041</v>
       </c>
       <c r="G23">
-        <v>2.052671758614495</v>
+        <v>3.69251303387552</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>31.77838858155024</v>
+        <v>33.81953863168665</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>21.26264580224025</v>
+        <v>14.48550726385592</v>
       </c>
       <c r="L23">
-        <v>10.2697298887237</v>
+        <v>10.7966733507533</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.10577338038653</v>
+        <v>12.90528136519251</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.277683892811246</v>
+        <v>8.024719341671879</v>
       </c>
       <c r="E24">
-        <v>8.503074901224734</v>
+        <v>10.47776295393831</v>
       </c>
       <c r="F24">
-        <v>49.13857799963063</v>
+        <v>43.59486406230839</v>
       </c>
       <c r="G24">
-        <v>2.071575624064566</v>
+        <v>3.69811083177269</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>30.54217820517765</v>
+        <v>33.55300882649713</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>19.53053653229802</v>
+        <v>14.06593276373304</v>
       </c>
       <c r="L24">
-        <v>9.453537546269095</v>
+        <v>10.7075600080392</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.19532644249094</v>
+        <v>12.81058856150726</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.250807371076056</v>
+        <v>8.009483524422983</v>
       </c>
       <c r="E25">
-        <v>8.131848169168627</v>
+        <v>10.39393716889066</v>
       </c>
       <c r="F25">
-        <v>45.5078053194265</v>
+        <v>42.64784728152466</v>
       </c>
       <c r="G25">
-        <v>2.092160225511672</v>
+        <v>3.704580718540229</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>29.23753694484229</v>
+        <v>33.27677821851757</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.55256340200702</v>
+        <v>13.61748162892115</v>
       </c>
       <c r="L25">
-        <v>8.786291219851815</v>
+        <v>10.61995071479073</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_54/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.75242533404057</v>
+        <v>9.513596190743041</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.998920270634828</v>
+        <v>6.235755910884306</v>
       </c>
       <c r="E2">
-        <v>10.32980958153274</v>
+        <v>7.862339009315527</v>
       </c>
       <c r="F2">
-        <v>41.96376400327019</v>
+        <v>42.78782631754287</v>
       </c>
       <c r="G2">
-        <v>3.709720673870575</v>
+        <v>2.107635365949094</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>33.08355626267235</v>
+        <v>28.30014663388817</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.29379090718554</v>
+        <v>15.99364431305844</v>
       </c>
       <c r="L2">
-        <v>10.56304082407664</v>
+        <v>8.29007661662077</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.72039652785334</v>
+        <v>9.038714987124779</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.992164242515012</v>
+        <v>6.228111247495524</v>
       </c>
       <c r="E3">
-        <v>10.28483599605408</v>
+        <v>7.680545206150584</v>
       </c>
       <c r="F3">
-        <v>41.51039658091621</v>
+        <v>40.91920928838401</v>
       </c>
       <c r="G3">
-        <v>3.713441198970362</v>
+        <v>2.11838673277206</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>32.95916790202578</v>
+        <v>27.67912608770895</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.08001272797512</v>
+        <v>14.86958425130247</v>
       </c>
       <c r="L3">
-        <v>10.52933145534091</v>
+        <v>7.951821243482867</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.70442667742202</v>
+        <v>8.741717637755789</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.988212781880506</v>
+        <v>6.224560150355154</v>
       </c>
       <c r="E4">
-        <v>10.2564717128333</v>
+        <v>7.568925553405554</v>
       </c>
       <c r="F4">
-        <v>41.23773778493378</v>
+        <v>39.76159465522385</v>
       </c>
       <c r="G4">
-        <v>3.715843385999123</v>
+        <v>2.125137068785813</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>32.88609577997138</v>
+        <v>27.30489351710247</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.95202536383974</v>
+        <v>14.1450154006671</v>
       </c>
       <c r="L4">
-        <v>10.51106533763075</v>
+        <v>7.743693087099262</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.69885524639157</v>
+        <v>8.619498319707301</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.986651754929225</v>
+        <v>6.22338420056701</v>
       </c>
       <c r="E5">
-        <v>10.24472396462557</v>
+        <v>7.523386083725011</v>
       </c>
       <c r="F5">
-        <v>41.12816116046846</v>
+        <v>39.28769947457597</v>
       </c>
       <c r="G5">
-        <v>3.716852023794093</v>
+        <v>2.127927892469264</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>32.85715875409383</v>
+        <v>27.15418742876762</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.90076995908587</v>
+        <v>13.84095466700323</v>
       </c>
       <c r="L5">
-        <v>10.50423802787787</v>
+        <v>7.658866029332969</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.69798685649458</v>
+        <v>8.599137606785447</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.986395512947109</v>
+        <v>6.223204858518627</v>
       </c>
       <c r="E6">
-        <v>10.24276182875473</v>
+        <v>7.515819589647086</v>
       </c>
       <c r="F6">
-        <v>41.11006149484344</v>
+        <v>39.20889325020636</v>
       </c>
       <c r="G6">
-        <v>3.71702130609005</v>
+        <v>2.128393793903423</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>32.85240481632607</v>
+        <v>27.12927189595583</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.89231565255234</v>
+        <v>13.78993048092119</v>
       </c>
       <c r="L6">
-        <v>10.50314170805159</v>
+        <v>7.644782865883089</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.70434773916439</v>
+        <v>8.740073916172832</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.988191530373823</v>
+        <v>6.224543213830656</v>
       </c>
       <c r="E7">
-        <v>10.25631404459326</v>
+        <v>7.568311676093793</v>
       </c>
       <c r="F7">
-        <v>41.23625365820091</v>
+        <v>39.75521165298336</v>
       </c>
       <c r="G7">
-        <v>3.715856868329509</v>
+        <v>2.125174541588652</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>32.88570210983634</v>
+        <v>27.30285374134446</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.95133036856567</v>
+        <v>14.1409505189072</v>
       </c>
       <c r="L7">
-        <v>10.51097076098035</v>
+        <v>7.742548994738286</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.74061923750409</v>
+        <v>9.351075655699944</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.996549802875549</v>
+        <v>6.232872747045758</v>
       </c>
       <c r="E8">
-        <v>10.31445817153619</v>
+        <v>7.799621292319807</v>
       </c>
       <c r="F8">
-        <v>41.80631751387369</v>
+        <v>42.14588950594128</v>
       </c>
       <c r="G8">
-        <v>3.710979135990818</v>
+        <v>2.111313121350149</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>33.03998787109376</v>
+        <v>28.08455854623192</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.21944771777121</v>
+        <v>15.61311580599442</v>
       </c>
       <c r="L8">
-        <v>10.55091627289668</v>
+        <v>8.173590809335515</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.84071634718517</v>
+        <v>10.50023195933566</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.014513289999442</v>
+        <v>6.259067507907284</v>
       </c>
       <c r="E9">
-        <v>10.42254628392938</v>
+        <v>8.256073931677177</v>
       </c>
       <c r="F9">
-        <v>42.9650698425578</v>
+        <v>46.73837476204421</v>
       </c>
       <c r="G9">
-        <v>3.702343211932766</v>
+        <v>2.085186122559536</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>33.36827869891567</v>
+        <v>29.67333785915824</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.76773489253133</v>
+        <v>18.23426176728702</v>
       </c>
       <c r="L9">
-        <v>10.6482994083494</v>
+        <v>9.011925507181708</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.93137159490391</v>
+        <v>11.3743149219048</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.028686474330735</v>
+        <v>6.285537424546305</v>
       </c>
       <c r="E10">
-        <v>10.49837599569955</v>
+        <v>8.597818076887577</v>
       </c>
       <c r="F10">
-        <v>43.83519897403432</v>
+        <v>50.04240992681632</v>
       </c>
       <c r="G10">
-        <v>3.696557704532085</v>
+        <v>2.066437355577264</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>33.624488610851</v>
+        <v>30.87533438003359</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.17962518738002</v>
+        <v>20.00887210300611</v>
       </c>
       <c r="L10">
-        <v>10.73109137072144</v>
+        <v>9.666950680782515</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.9761923642634</v>
+        <v>11.80922707527242</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.035349304271994</v>
+        <v>6.299453473799171</v>
       </c>
       <c r="E11">
-        <v>10.53210246473562</v>
+        <v>8.755939642961792</v>
       </c>
       <c r="F11">
-        <v>44.23379743398274</v>
+        <v>51.52988416203657</v>
       </c>
       <c r="G11">
-        <v>3.694045633341382</v>
+        <v>2.057954882993947</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>33.74414436287958</v>
+        <v>31.43021235143744</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.3679995448055</v>
+        <v>20.78608765337044</v>
       </c>
       <c r="L11">
-        <v>10.77110529689645</v>
+        <v>10.0407665749709</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.99366688039601</v>
+        <v>11.97116670463676</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.037903519947568</v>
+        <v>6.305021679496265</v>
       </c>
       <c r="E12">
-        <v>10.54476371879815</v>
+        <v>8.816325614422741</v>
       </c>
       <c r="F12">
-        <v>44.38502313673447</v>
+        <v>52.091021130129</v>
       </c>
       <c r="G12">
-        <v>3.693111483840089</v>
+        <v>2.05474467897621</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>33.78988616922742</v>
+        <v>31.6415658928757</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.43939759657026</v>
+        <v>21.0763307723151</v>
       </c>
       <c r="L12">
-        <v>10.78658694701312</v>
+        <v>10.18023739856275</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.98988132789044</v>
+        <v>11.93641110782062</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.037352036035026</v>
+        <v>6.30380869301645</v>
       </c>
       <c r="E13">
-        <v>10.54204178831806</v>
+        <v>8.803295552770459</v>
       </c>
       <c r="F13">
-        <v>44.35244309474866</v>
+        <v>51.97026251732141</v>
       </c>
       <c r="G13">
-        <v>3.693311910059665</v>
+        <v>2.055436050569729</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>33.78001595144934</v>
+        <v>31.59599081802475</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.42401910585182</v>
+        <v>21.0139984812091</v>
       </c>
       <c r="L13">
-        <v>10.7832382008324</v>
+        <v>10.15029078229583</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.9776200232325</v>
+        <v>11.82260460182578</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.035558815965947</v>
+        <v>6.299905413015486</v>
       </c>
       <c r="E14">
-        <v>10.53314632094194</v>
+        <v>8.760896639319087</v>
       </c>
       <c r="F14">
-        <v>44.24623379706535</v>
+        <v>51.57609110366306</v>
       </c>
       <c r="G14">
-        <v>3.693968437857349</v>
+        <v>2.057690768429064</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>33.74789902790995</v>
+        <v>31.44757530266936</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.37387265349099</v>
+        <v>20.81004618251796</v>
       </c>
       <c r="L14">
-        <v>10.77237243590356</v>
+        <v>10.05228206319429</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.97017457393681</v>
+        <v>11.7525390019578</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.034464478011953</v>
+        <v>6.297554332030324</v>
       </c>
       <c r="E15">
-        <v>10.52768324531076</v>
+        <v>8.734996437126799</v>
       </c>
       <c r="F15">
-        <v>44.18121130878484</v>
+        <v>51.33437625482535</v>
       </c>
       <c r="G15">
-        <v>3.694372806086342</v>
+        <v>2.059071947323098</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>33.72828210624082</v>
+        <v>31.35682974674845</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.34316262319826</v>
+        <v>20.68459724499233</v>
       </c>
       <c r="L15">
-        <v>10.76575944519564</v>
+        <v>9.991980694764777</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.92851341432033</v>
+        <v>11.34550261621605</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.028255392072847</v>
+        <v>6.284668097355768</v>
       </c>
       <c r="E16">
-        <v>10.4961564487399</v>
+        <v>8.587548321628718</v>
       </c>
       <c r="F16">
-        <v>43.80919569335384</v>
+        <v>49.94489298819018</v>
       </c>
       <c r="G16">
-        <v>3.696724275465949</v>
+        <v>2.06699224678349</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>33.61672997619719</v>
+        <v>30.83923984857012</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.16732781568049</v>
+        <v>19.95749513169752</v>
       </c>
       <c r="L16">
-        <v>10.72852293648538</v>
+        <v>9.642223107563048</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.90386382584117</v>
+        <v>11.0908071226475</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.024501612709299</v>
+        <v>6.277262504334294</v>
       </c>
       <c r="E17">
-        <v>10.47661909514002</v>
+        <v>8.497858602676638</v>
       </c>
       <c r="F17">
-        <v>43.58160526305215</v>
+        <v>49.08854265189633</v>
       </c>
       <c r="G17">
-        <v>3.698197428902162</v>
+        <v>2.071859789909983</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>33.54908060968128</v>
+        <v>30.52382691333309</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.05965848637533</v>
+        <v>19.50391161403848</v>
       </c>
       <c r="L17">
-        <v>10.70627566046727</v>
+        <v>9.444314325714718</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.89002395912529</v>
+        <v>10.95617716139859</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.022362801053804</v>
+        <v>6.273177546192023</v>
       </c>
       <c r="E18">
-        <v>10.46530933860346</v>
+        <v>8.446513188344538</v>
       </c>
       <c r="F18">
-        <v>43.45096899050867</v>
+        <v>48.5945164353671</v>
       </c>
       <c r="G18">
-        <v>3.699056028950161</v>
+        <v>2.074664160235561</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>33.51046368781064</v>
+        <v>30.34316473124559</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.99782899488349</v>
+        <v>19.24017599423709</v>
       </c>
       <c r="L18">
-        <v>10.69370151418284</v>
+        <v>9.353284405194575</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.88539644248842</v>
+        <v>10.91521795778448</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.021642110717639</v>
+        <v>6.271823600934051</v>
       </c>
       <c r="E19">
-        <v>10.461467606727</v>
+        <v>8.429166513015938</v>
       </c>
       <c r="F19">
-        <v>43.40678724443384</v>
+        <v>48.42699293791586</v>
       </c>
       <c r="G19">
-        <v>3.69934867700652</v>
+        <v>2.075614612288238</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>33.4974394846152</v>
+        <v>30.28212360912915</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.97691406889166</v>
+        <v>19.15038357488501</v>
       </c>
       <c r="L19">
-        <v>10.68948249721756</v>
+        <v>9.322431650526946</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.90645293501308</v>
+        <v>11.11811183522376</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.024899110466087</v>
+        <v>6.278032579147396</v>
       </c>
       <c r="E20">
-        <v>10.47870636921605</v>
+        <v>8.507380357696528</v>
       </c>
       <c r="F20">
-        <v>43.60580576916279</v>
+        <v>49.17985502592646</v>
       </c>
       <c r="G20">
-        <v>3.698039442428382</v>
+        <v>2.071341178947125</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>33.5562517657818</v>
+        <v>30.55732460065254</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.07111040222349</v>
+        <v>19.55248921243065</v>
       </c>
       <c r="L20">
-        <v>10.70862101796079</v>
+        <v>9.461146799527066</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.98120795387306</v>
+        <v>11.85610632612397</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.036084681545287</v>
+        <v>6.301043552017561</v>
       </c>
       <c r="E21">
-        <v>10.53576212423808</v>
+        <v>8.773335310463885</v>
       </c>
       <c r="F21">
-        <v>44.27742320545989</v>
+        <v>51.69192545872894</v>
       </c>
       <c r="G21">
-        <v>3.693775136024263</v>
+        <v>2.057028491850616</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>33.75732098441163</v>
+        <v>31.49113434934689</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.3886007449029</v>
+        <v>20.87006026462828</v>
       </c>
       <c r="L21">
-        <v>10.77555511243842</v>
+        <v>10.08112528576886</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.03298326323099</v>
+        <v>12.32243204059714</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.043576714168344</v>
+        <v>6.31783848343353</v>
       </c>
       <c r="E22">
-        <v>10.57240902292871</v>
+        <v>8.950192085437566</v>
       </c>
       <c r="F22">
-        <v>44.7179739074428</v>
+        <v>53.32137913938195</v>
       </c>
       <c r="G22">
-        <v>3.691087888589482</v>
+        <v>2.047682870686572</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>33.89123442159154</v>
+        <v>32.10867748779962</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.59644164520602</v>
+        <v>21.70757615364514</v>
       </c>
       <c r="L22">
-        <v>10.82121499779597</v>
+        <v>10.48332050053223</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.00508730187217</v>
+        <v>12.07497932410614</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.039561404016538</v>
+        <v>6.308703552002257</v>
       </c>
       <c r="E23">
-        <v>10.5529085467814</v>
+        <v>8.855474807708292</v>
       </c>
       <c r="F23">
-        <v>44.48273368643041</v>
+        <v>52.45277483157783</v>
       </c>
       <c r="G23">
-        <v>3.69251303387552</v>
+        <v>2.052671758614621</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>33.81953863168665</v>
+        <v>31.77838858155029</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.48550726385592</v>
+        <v>21.26264580224039</v>
       </c>
       <c r="L23">
-        <v>10.7966733507533</v>
+        <v>10.26972988872375</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.90528136519251</v>
+        <v>11.10577338038657</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.024719341671879</v>
+        <v>6.277683892811213</v>
       </c>
       <c r="E24">
-        <v>10.47776295393831</v>
+        <v>8.503074901224727</v>
       </c>
       <c r="F24">
-        <v>43.59486406230839</v>
+        <v>49.13857799963068</v>
       </c>
       <c r="G24">
-        <v>3.69811083177269</v>
+        <v>2.071575624064563</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>33.55300882649713</v>
+        <v>30.54217820517766</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.06593276373304</v>
+        <v>19.53053653229802</v>
       </c>
       <c r="L24">
-        <v>10.7075600080392</v>
+        <v>9.453537546269107</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.81058856150726</v>
+        <v>10.19532644249093</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.009483524422983</v>
+        <v>6.250807371076275</v>
       </c>
       <c r="E25">
-        <v>10.39393716889066</v>
+        <v>8.131848169168759</v>
       </c>
       <c r="F25">
-        <v>42.64784728152466</v>
+        <v>45.50780531942653</v>
       </c>
       <c r="G25">
-        <v>3.704580718540229</v>
+        <v>2.092160225511678</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>33.27677821851757</v>
+        <v>29.2375369448424</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.61748162892115</v>
+        <v>17.55256340200704</v>
       </c>
       <c r="L25">
-        <v>10.61995071479073</v>
+        <v>8.786291219851822</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_54/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.513596190743041</v>
+        <v>7.094849367826068</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.235755910884306</v>
+        <v>4.88321716820858</v>
       </c>
       <c r="E2">
-        <v>7.862339009315527</v>
+        <v>15.60269502850413</v>
       </c>
       <c r="F2">
-        <v>42.78782631754287</v>
+        <v>15.63160725995082</v>
       </c>
       <c r="G2">
-        <v>2.107635365949094</v>
+        <v>18.47168452028382</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.050961060632206</v>
       </c>
       <c r="I2">
-        <v>28.30014663388817</v>
+        <v>3.50196881462877</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.763931882650142</v>
       </c>
       <c r="K2">
-        <v>15.99364431305844</v>
+        <v>13.93889243403151</v>
       </c>
       <c r="L2">
-        <v>8.29007661662077</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>16.10587136798619</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15.69339618172578</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>12.27978160427599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.038714987124779</v>
+        <v>6.670749671781268</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.228111247495524</v>
+        <v>4.66203984056778</v>
       </c>
       <c r="E3">
-        <v>7.680545206150584</v>
+        <v>14.89250667603398</v>
       </c>
       <c r="F3">
-        <v>40.91920928838401</v>
+        <v>15.25563953150394</v>
       </c>
       <c r="G3">
-        <v>2.11838673277206</v>
+        <v>17.98015552770705</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.855757258533829</v>
       </c>
       <c r="I3">
-        <v>27.67912608770895</v>
+        <v>3.595654729065488</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.787021035715648</v>
       </c>
       <c r="K3">
-        <v>14.86958425130247</v>
+        <v>14.15967486834691</v>
       </c>
       <c r="L3">
-        <v>7.951821243482867</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>15.31176528211373</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>14.75471263963252</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>12.20972675327202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.741717637755789</v>
+        <v>6.391394408940849</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.224560150355154</v>
+        <v>4.520482618440962</v>
       </c>
       <c r="E4">
-        <v>7.568925553405554</v>
+        <v>14.43646768698559</v>
       </c>
       <c r="F4">
-        <v>39.76159465522385</v>
+        <v>15.03000651886463</v>
       </c>
       <c r="G4">
-        <v>2.125137068785813</v>
+        <v>17.68566127655907</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.731586098218733</v>
       </c>
       <c r="I4">
-        <v>27.30489351710247</v>
+        <v>3.655954087894506</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.80456806255265</v>
       </c>
       <c r="K4">
-        <v>14.1450154006671</v>
+        <v>14.29886641186687</v>
       </c>
       <c r="L4">
-        <v>7.743693087099262</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>14.80472567957747</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>14.14904309794211</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>12.17369658341127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.619498319707301</v>
+        <v>6.261246225210961</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.22338420056701</v>
+        <v>4.462637373183889</v>
       </c>
       <c r="E5">
-        <v>7.523386083725011</v>
+        <v>14.24157906713526</v>
       </c>
       <c r="F5">
-        <v>39.28769947457597</v>
+        <v>14.93290439087319</v>
       </c>
       <c r="G5">
-        <v>2.127927892469264</v>
+        <v>17.55567774711775</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.679856835679542</v>
       </c>
       <c r="I5">
-        <v>27.15418742876762</v>
+        <v>3.68396522247388</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7.810639071725732</v>
       </c>
       <c r="K5">
-        <v>13.84095466700323</v>
+        <v>14.35541317481358</v>
       </c>
       <c r="L5">
-        <v>7.658866029332969</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>14.60146389134159</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>13.89954067692505</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>12.15588363238531</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.599137606785447</v>
+        <v>6.225195779210137</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.223204858518627</v>
+        <v>4.454478390903317</v>
       </c>
       <c r="E6">
-        <v>7.515819589647086</v>
+        <v>14.20384932826572</v>
       </c>
       <c r="F6">
-        <v>39.20889325020636</v>
+        <v>14.9088378692281</v>
       </c>
       <c r="G6">
-        <v>2.128393793903423</v>
+        <v>17.51961903268729</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.671165789343013</v>
       </c>
       <c r="I6">
-        <v>27.12927189595583</v>
+        <v>3.69215181134811</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>7.809373033720535</v>
       </c>
       <c r="K6">
-        <v>13.78993048092119</v>
+        <v>14.36358880111285</v>
       </c>
       <c r="L6">
-        <v>7.644782865883089</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>14.57735519010579</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>13.86329743864719</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>12.14711224762544</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.740073916172832</v>
+        <v>6.351848621243573</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.224543213830656</v>
+        <v>4.523834315996333</v>
       </c>
       <c r="E7">
-        <v>7.568311676093793</v>
+        <v>14.42023958328673</v>
       </c>
       <c r="F7">
-        <v>39.75521165298336</v>
+        <v>15.00697403499972</v>
       </c>
       <c r="G7">
-        <v>2.125174541588652</v>
+        <v>17.64445276719609</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.730805413478526</v>
       </c>
       <c r="I7">
-        <v>27.30285374134446</v>
+        <v>3.665539285269805</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7.798322514765308</v>
       </c>
       <c r="K7">
-        <v>14.1409505189072</v>
+        <v>14.29629752626943</v>
       </c>
       <c r="L7">
-        <v>7.742548994738286</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>14.82870081352469</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>14.16071420505094</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>12.15736796950983</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.351075655699944</v>
+        <v>6.906157486505769</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.232872747045758</v>
+        <v>4.813391634597316</v>
       </c>
       <c r="E8">
-        <v>7.799621292319807</v>
+        <v>15.34509454877903</v>
       </c>
       <c r="F8">
-        <v>42.14588950594128</v>
+        <v>15.47325551652398</v>
       </c>
       <c r="G8">
-        <v>2.111313121350149</v>
+        <v>18.25060044195448</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.984457125106871</v>
       </c>
       <c r="I8">
-        <v>28.08455854623192</v>
+        <v>3.545233336521942</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.762899745610594</v>
       </c>
       <c r="K8">
-        <v>15.61311580599442</v>
+        <v>14.01073990825268</v>
       </c>
       <c r="L8">
-        <v>8.173590809335515</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>15.86971060315108</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>15.3942443955639</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>12.23323598760895</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.50023195933566</v>
+        <v>7.902473198602826</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.259067507907284</v>
+        <v>5.327294643175378</v>
       </c>
       <c r="E9">
-        <v>8.256073931677177</v>
+        <v>17.01804480371134</v>
       </c>
       <c r="F9">
-        <v>46.73837476204421</v>
+        <v>16.46156393320202</v>
       </c>
       <c r="G9">
-        <v>2.085186122559536</v>
+        <v>19.55870636179687</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.448410345728605</v>
       </c>
       <c r="I9">
-        <v>29.67333785915824</v>
+        <v>3.316209129783861</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.732611651205105</v>
       </c>
       <c r="K9">
-        <v>18.23426176728702</v>
+        <v>13.48379547865904</v>
       </c>
       <c r="L9">
-        <v>9.011925507181708</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>17.70726105828872</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>17.55396728231305</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>12.46767645427645</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.3743149219048</v>
+        <v>8.55457068620403</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.285537424546305</v>
+        <v>5.700336767285772</v>
       </c>
       <c r="E10">
-        <v>8.597818076887577</v>
+        <v>17.61862503983693</v>
       </c>
       <c r="F10">
-        <v>50.04240992681632</v>
+        <v>17.08253905691757</v>
       </c>
       <c r="G10">
-        <v>2.066437355577264</v>
+        <v>20.32464294205682</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.747895740796662</v>
       </c>
       <c r="I10">
-        <v>30.87533438003359</v>
+        <v>3.168230448094381</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.692339679683403</v>
       </c>
       <c r="K10">
-        <v>20.00887210300611</v>
+        <v>13.11162546345155</v>
       </c>
       <c r="L10">
-        <v>9.666950680782515</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>18.99553639964783</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>18.73286476735599</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>12.58328150217596</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.80922707527242</v>
+        <v>9.027997437041874</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.299453473799171</v>
+        <v>6.074705925108502</v>
       </c>
       <c r="E11">
-        <v>8.755939642961792</v>
+        <v>13.64376863160917</v>
       </c>
       <c r="F11">
-        <v>51.52988416203657</v>
+        <v>16.36711971610327</v>
       </c>
       <c r="G11">
-        <v>2.057954882993947</v>
+        <v>18.87621919938283</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.376353342296558</v>
       </c>
       <c r="I11">
-        <v>31.43021235143744</v>
+        <v>3.136739789797978</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.375019920887516</v>
       </c>
       <c r="K11">
-        <v>20.78608765337044</v>
+        <v>12.99028228386627</v>
       </c>
       <c r="L11">
-        <v>10.0407665749709</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>19.85091540363187</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>16.99093202730877</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>11.86824792800458</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.97116670463676</v>
+        <v>9.34605013829449</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.305021679496265</v>
+        <v>6.312512560787789</v>
       </c>
       <c r="E12">
-        <v>8.816325614422741</v>
+        <v>10.71335197887469</v>
       </c>
       <c r="F12">
-        <v>52.091021130129</v>
+        <v>15.64434525530571</v>
       </c>
       <c r="G12">
-        <v>2.05474467897621</v>
+        <v>17.51739422526254</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.469420546491889</v>
       </c>
       <c r="I12">
-        <v>31.6415658928757</v>
+        <v>3.122226317667743</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.122217849016919</v>
       </c>
       <c r="K12">
-        <v>21.0763307723151</v>
+        <v>13.0263646637174</v>
       </c>
       <c r="L12">
-        <v>10.18023739856275</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>20.28170396202852</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>15.32443353840466</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>11.25359420807913</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.93641110782062</v>
+        <v>9.529428891865694</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.30380869301645</v>
+        <v>6.470254623298135</v>
       </c>
       <c r="E13">
-        <v>8.803295552770459</v>
+        <v>8.873818351512751</v>
       </c>
       <c r="F13">
-        <v>51.97026251732141</v>
+        <v>14.82562356393563</v>
       </c>
       <c r="G13">
-        <v>2.055436050569729</v>
+        <v>16.0590860185719</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.701599121489576</v>
       </c>
       <c r="I13">
-        <v>31.59599081802475</v>
+        <v>3.134086113619895</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.894635124057463</v>
       </c>
       <c r="K13">
-        <v>21.0139984812091</v>
+        <v>13.17306473733982</v>
       </c>
       <c r="L13">
-        <v>10.15029078229583</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>20.45609708059551</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>13.5508814397991</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>10.65191341062315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.82260460182578</v>
+        <v>9.591275546572255</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.299905413015486</v>
+        <v>6.547403981806263</v>
       </c>
       <c r="E14">
-        <v>8.760896639319087</v>
+        <v>8.616304690884217</v>
       </c>
       <c r="F14">
-        <v>51.57609110366306</v>
+        <v>14.19733819507495</v>
       </c>
       <c r="G14">
-        <v>2.057690768429064</v>
+        <v>14.97213741090299</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.610463915595181</v>
       </c>
       <c r="I14">
-        <v>31.44757530266936</v>
+        <v>3.156931559715948</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.746883302233463</v>
       </c>
       <c r="K14">
-        <v>20.81004618251796</v>
+        <v>13.33150727215297</v>
       </c>
       <c r="L14">
-        <v>10.05228206319429</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>20.47127252957639</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>12.25948480005484</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>10.23486499508652</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.7525390019578</v>
+        <v>9.56561861043318</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.297554332030324</v>
+        <v>6.550442635693929</v>
       </c>
       <c r="E15">
-        <v>8.734996437126799</v>
+        <v>8.707074472559757</v>
       </c>
       <c r="F15">
-        <v>51.33437625482535</v>
+        <v>14.01771039326307</v>
       </c>
       <c r="G15">
-        <v>2.059071947323098</v>
+        <v>14.67482947580713</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.818629614692711</v>
       </c>
       <c r="I15">
-        <v>31.35682974674845</v>
+        <v>3.172681047664138</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.715010313558303</v>
       </c>
       <c r="K15">
-        <v>20.68459724499233</v>
+        <v>13.39048218799492</v>
       </c>
       <c r="L15">
-        <v>9.991980694764777</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>20.42848469750578</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>11.91950258063778</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>10.13285214927604</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.34550261621605</v>
+        <v>9.259837057203553</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.284668097355768</v>
+        <v>6.376704088149809</v>
       </c>
       <c r="E16">
-        <v>8.587548321628718</v>
+        <v>8.655670580481019</v>
       </c>
       <c r="F16">
-        <v>49.94489298819018</v>
+        <v>13.86517892974612</v>
       </c>
       <c r="G16">
-        <v>2.06699224678349</v>
+        <v>14.54334387515496</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.552922241418418</v>
       </c>
       <c r="I16">
-        <v>30.83923984857012</v>
+        <v>3.238806654172581</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.775423342214403</v>
       </c>
       <c r="K16">
-        <v>19.95749513169752</v>
+        <v>13.49607955723187</v>
       </c>
       <c r="L16">
-        <v>9.642223107563048</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>19.88907702737758</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>11.65764914040189</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>10.18875228232802</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.0908071226475</v>
+        <v>8.982895216795365</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.277262504334294</v>
+        <v>6.197950178636368</v>
       </c>
       <c r="E17">
-        <v>8.497858602676638</v>
+        <v>8.558207761136869</v>
       </c>
       <c r="F17">
-        <v>49.08854265189633</v>
+        <v>14.0937828592118</v>
       </c>
       <c r="G17">
-        <v>2.071859789909983</v>
+        <v>15.04078236410694</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.817556928258356</v>
       </c>
       <c r="I17">
-        <v>30.52382691333309</v>
+        <v>3.27828233547461</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.899577456785661</v>
       </c>
       <c r="K17">
-        <v>19.50391161403848</v>
+        <v>13.494227221239</v>
       </c>
       <c r="L17">
-        <v>9.444314325714718</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>19.4594130739547</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>12.16412402808437</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>10.45369118133417</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.95617716139859</v>
+        <v>8.731398861020208</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.273177546192023</v>
+        <v>5.994085907838589</v>
       </c>
       <c r="E18">
-        <v>8.446513188344538</v>
+        <v>9.416410800132644</v>
       </c>
       <c r="F18">
-        <v>48.5945164353671</v>
+        <v>14.68508967584882</v>
       </c>
       <c r="G18">
-        <v>2.074664160235561</v>
+        <v>16.15368826151676</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.644685645028939</v>
       </c>
       <c r="I18">
-        <v>30.34316473124559</v>
+        <v>3.288102396944538</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.097383362479115</v>
       </c>
       <c r="K18">
-        <v>19.24017599423709</v>
+        <v>13.41564714075722</v>
       </c>
       <c r="L18">
-        <v>9.353284405194575</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>19.0635924901928</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>13.42655937324741</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>10.93894612773368</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.91521795778448</v>
+        <v>8.468298493041138</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.271823600934051</v>
+        <v>5.796196906679282</v>
       </c>
       <c r="E19">
-        <v>8.429166513015938</v>
+        <v>11.97857336191528</v>
       </c>
       <c r="F19">
-        <v>48.42699293791586</v>
+        <v>15.47915281946104</v>
       </c>
       <c r="G19">
-        <v>2.075614612288238</v>
+        <v>17.60215436762563</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.392177872819811</v>
       </c>
       <c r="I19">
-        <v>30.28212360912915</v>
+        <v>3.28997984510683</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.332155579778202</v>
       </c>
       <c r="K19">
-        <v>19.15038357488501</v>
+        <v>13.33801081672467</v>
       </c>
       <c r="L19">
-        <v>9.322431650526946</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>18.77650173247232</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>15.24866911558456</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>11.54273871748803</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.11811183522376</v>
+        <v>8.299172452868273</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.278032579147396</v>
+        <v>5.616683329485009</v>
       </c>
       <c r="E20">
-        <v>8.507380357696528</v>
+        <v>17.40637833462903</v>
       </c>
       <c r="F20">
-        <v>49.17985502592646</v>
+        <v>16.85443621579529</v>
       </c>
       <c r="G20">
-        <v>2.071341178947125</v>
+        <v>20.00682933868872</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.66821187846961</v>
       </c>
       <c r="I20">
-        <v>30.55732460065254</v>
+        <v>3.235522740687089</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.681207063963891</v>
       </c>
       <c r="K20">
-        <v>19.55248921243065</v>
+        <v>13.20685160301527</v>
       </c>
       <c r="L20">
-        <v>9.461146799527066</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>18.735476348311</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>18.45479204616029</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>12.4997597554247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.85610632612397</v>
+        <v>8.751281848428203</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.301043552017561</v>
+        <v>5.853356466932172</v>
       </c>
       <c r="E21">
-        <v>8.773335310463885</v>
+        <v>18.65061884764653</v>
       </c>
       <c r="F21">
-        <v>51.69192545872894</v>
+        <v>17.52409225539826</v>
       </c>
       <c r="G21">
-        <v>2.057028491850616</v>
+        <v>20.94309028786615</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.927440816797339</v>
       </c>
       <c r="I21">
-        <v>31.49113434934689</v>
+        <v>3.116608433053381</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.713520406171742</v>
       </c>
       <c r="K21">
-        <v>20.87006026462828</v>
+        <v>12.93086734266873</v>
       </c>
       <c r="L21">
-        <v>10.08112528576886</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>19.62646141649878</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>19.72131899651934</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>12.74675654442539</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.32243204059714</v>
+        <v>9.078947550245422</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.31783848343353</v>
+        <v>6.010329043335165</v>
       </c>
       <c r="E22">
-        <v>8.950192085437566</v>
+        <v>19.18924238706162</v>
       </c>
       <c r="F22">
-        <v>53.32137913938195</v>
+        <v>17.92811745071029</v>
       </c>
       <c r="G22">
-        <v>2.047682870686572</v>
+        <v>21.49342863344977</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.081571065630365</v>
       </c>
       <c r="I22">
-        <v>32.10867748779962</v>
+        <v>3.030368865911574</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.729088862066366</v>
       </c>
       <c r="K22">
-        <v>21.70757615364514</v>
+        <v>12.75298375745925</v>
       </c>
       <c r="L22">
-        <v>10.48332050053223</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>20.17784934745054</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>20.36993827168794</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>12.88988804092911</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.07497932410614</v>
+        <v>8.938273129186477</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.308703552002257</v>
+        <v>5.923106185239199</v>
       </c>
       <c r="E23">
-        <v>8.855474807708292</v>
+        <v>18.91589691183889</v>
       </c>
       <c r="F23">
-        <v>52.45277483157783</v>
+        <v>17.73355411550401</v>
       </c>
       <c r="G23">
-        <v>2.052671758614621</v>
+        <v>21.23728810414171</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.999593470529462</v>
       </c>
       <c r="I23">
-        <v>31.77838858155029</v>
+        <v>3.064861259601326</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.727477551781522</v>
       </c>
       <c r="K23">
-        <v>21.26264580224039</v>
+        <v>12.84770484585822</v>
       </c>
       <c r="L23">
-        <v>10.26972988872375</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>19.86036475966534</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>20.01331422113751</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>12.82999177682494</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.10577338038657</v>
+        <v>8.32230338793125</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.277683892811213</v>
+        <v>5.587290139124315</v>
       </c>
       <c r="E24">
-        <v>8.503074901224727</v>
+        <v>17.82238890521565</v>
       </c>
       <c r="F24">
-        <v>49.13857799963068</v>
+        <v>16.96747228463278</v>
       </c>
       <c r="G24">
-        <v>2.071575624064563</v>
+        <v>20.21515252034024</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.68266918964926</v>
       </c>
       <c r="I24">
-        <v>30.54217820517766</v>
+        <v>3.217872065083294</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.718575720163376</v>
       </c>
       <c r="K24">
-        <v>19.53053653229802</v>
+        <v>13.21290265550259</v>
       </c>
       <c r="L24">
-        <v>9.453537546269107</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>18.65648587820304</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>18.62847857783646</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>12.59201062731986</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.19532644249093</v>
+        <v>7.591780088816493</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.250807371076275</v>
+        <v>5.200165366801571</v>
       </c>
       <c r="E25">
-        <v>8.131848169168759</v>
+        <v>16.5621605283735</v>
       </c>
       <c r="F25">
-        <v>45.50780531942653</v>
+        <v>16.15508057068276</v>
       </c>
       <c r="G25">
-        <v>2.092160225511678</v>
+        <v>19.13550464787658</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.326330145339683</v>
       </c>
       <c r="I25">
-        <v>29.2375369448424</v>
+        <v>3.392026347427201</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.726486008247726</v>
       </c>
       <c r="K25">
-        <v>17.55256340200704</v>
+        <v>13.6204963168752</v>
       </c>
       <c r="L25">
-        <v>8.786291219851822</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>17.2705088785797</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>17.01788566555233</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>12.37001900846845</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_54/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.094849367826068</v>
+        <v>7.420035231986478</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.88321716820858</v>
+        <v>4.869490049893631</v>
       </c>
       <c r="E2">
-        <v>15.60269502850413</v>
+        <v>15.61877943341006</v>
       </c>
       <c r="F2">
-        <v>15.63160725995082</v>
+        <v>15.74636728207605</v>
       </c>
       <c r="G2">
-        <v>18.47168452028382</v>
+        <v>17.97809793411485</v>
       </c>
       <c r="H2">
-        <v>2.050961060632206</v>
+        <v>2.06647427224229</v>
       </c>
       <c r="I2">
-        <v>3.50196881462877</v>
+        <v>3.226164337500846</v>
       </c>
       <c r="J2">
-        <v>7.763931882650142</v>
+        <v>8.429172678621546</v>
       </c>
       <c r="K2">
-        <v>13.93889243403151</v>
+        <v>13.33477681989709</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.7141242582486</v>
       </c>
       <c r="M2">
-        <v>16.10587136798619</v>
+        <v>8.933276515602865</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.69339618172578</v>
+        <v>15.84237341139271</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>12.27978160427599</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>15.67242922100175</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>12.37425795031047</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.670749671781268</v>
+        <v>7.053163751311834</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.66203984056778</v>
+        <v>4.64245185076881</v>
       </c>
       <c r="E3">
-        <v>14.89250667603398</v>
+        <v>14.92449833906256</v>
       </c>
       <c r="F3">
-        <v>15.25563953150394</v>
+        <v>15.38303094660881</v>
       </c>
       <c r="G3">
-        <v>17.98015552770705</v>
+        <v>17.48584920989052</v>
       </c>
       <c r="H3">
-        <v>1.855757258533829</v>
+        <v>1.874709619653506</v>
       </c>
       <c r="I3">
-        <v>3.595654729065488</v>
+        <v>3.304011888429994</v>
       </c>
       <c r="J3">
-        <v>7.787021035715648</v>
+        <v>8.426418143272398</v>
       </c>
       <c r="K3">
-        <v>14.15967486834691</v>
+        <v>13.53103351148313</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>10.85331923766146</v>
       </c>
       <c r="M3">
-        <v>15.31176528211373</v>
+        <v>9.147294630217075</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.75471263963252</v>
+        <v>15.01487289525957</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>12.20972675327202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>14.72363867717193</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>12.30900885712196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.391394408940849</v>
+        <v>6.811654842198238</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.520482618440962</v>
+        <v>4.497147055527948</v>
       </c>
       <c r="E4">
-        <v>14.43646768698559</v>
+        <v>14.47867086810305</v>
       </c>
       <c r="F4">
-        <v>15.03000651886463</v>
+        <v>15.16425960478107</v>
       </c>
       <c r="G4">
-        <v>17.68566127655907</v>
+        <v>17.19236620672694</v>
       </c>
       <c r="H4">
-        <v>1.731586098218733</v>
+        <v>1.752719133115562</v>
       </c>
       <c r="I4">
-        <v>3.655954087894506</v>
+        <v>3.354459899476063</v>
       </c>
       <c r="J4">
-        <v>7.80456806255265</v>
+        <v>8.426265570005954</v>
       </c>
       <c r="K4">
-        <v>14.29886641186687</v>
+        <v>13.65524511964738</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>10.95129125337077</v>
       </c>
       <c r="M4">
-        <v>14.80472567957747</v>
+        <v>9.286368909013071</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.14904309794211</v>
+        <v>14.48623708469747</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12.17369658341127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>14.11147702162424</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>12.27505438025344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.261246225210961</v>
+        <v>6.699519020501343</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.462637373183889</v>
+        <v>4.43759161295383</v>
       </c>
       <c r="E5">
-        <v>14.24157906713526</v>
+        <v>14.28849508468938</v>
       </c>
       <c r="F5">
-        <v>14.93290439087319</v>
+        <v>15.07043727938421</v>
       </c>
       <c r="G5">
-        <v>17.55567774711775</v>
+        <v>17.06412695166161</v>
       </c>
       <c r="H5">
-        <v>1.679856835679542</v>
+        <v>1.701894184834353</v>
       </c>
       <c r="I5">
-        <v>3.68396522247388</v>
+        <v>3.37891234551127</v>
       </c>
       <c r="J5">
-        <v>7.810639071725732</v>
+        <v>8.424941944615171</v>
       </c>
       <c r="K5">
-        <v>14.35541317481358</v>
+        <v>13.70517609956751</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>10.99040271569077</v>
       </c>
       <c r="M5">
-        <v>14.60146389134159</v>
+        <v>9.346553054184245</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.89954067692505</v>
+        <v>14.27306175602132</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12.15588363238531</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>13.85873431377172</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>12.25838405308218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.225195779210137</v>
+        <v>6.668851742655556</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.454478390903317</v>
+        <v>4.428962637721345</v>
       </c>
       <c r="E6">
-        <v>14.20384932826572</v>
+        <v>14.25210396764962</v>
       </c>
       <c r="F6">
-        <v>14.9088378692281</v>
+        <v>15.04779175914567</v>
       </c>
       <c r="G6">
-        <v>17.51961903268729</v>
+        <v>17.02960095153353</v>
       </c>
       <c r="H6">
-        <v>1.671165789343013</v>
+        <v>1.693351572519507</v>
       </c>
       <c r="I6">
-        <v>3.69215181134811</v>
+        <v>3.387152211182106</v>
       </c>
       <c r="J6">
-        <v>7.809373033720535</v>
+        <v>8.422740810580088</v>
       </c>
       <c r="K6">
-        <v>14.36358880111285</v>
+        <v>13.71161156353826</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>10.99240993493338</v>
       </c>
       <c r="M6">
-        <v>14.57735519010579</v>
+        <v>9.358600106741299</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.86329743864719</v>
+        <v>14.24623031323535</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12.14711224762544</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>13.82129345154842</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>12.25042268885051</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.351848621243573</v>
+        <v>6.782440149258965</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.523834315996333</v>
+        <v>4.503437675713052</v>
       </c>
       <c r="E7">
-        <v>14.42023958328673</v>
+        <v>14.4645162044892</v>
       </c>
       <c r="F7">
-        <v>15.00697403499972</v>
+        <v>15.12809348549444</v>
       </c>
       <c r="G7">
-        <v>17.64445276719609</v>
+        <v>17.2452071462453</v>
       </c>
       <c r="H7">
-        <v>1.730805413478526</v>
+        <v>1.751562576979373</v>
       </c>
       <c r="I7">
-        <v>3.665539285269805</v>
+        <v>3.365853660952186</v>
       </c>
       <c r="J7">
-        <v>7.798322514765308</v>
+        <v>8.383625566955452</v>
       </c>
       <c r="K7">
-        <v>14.29629752626943</v>
+        <v>13.65013623260237</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>10.93832111057048</v>
       </c>
       <c r="M7">
-        <v>14.82870081352469</v>
+        <v>9.292391308594237</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.16071420505094</v>
+        <v>14.50356809013765</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12.15736796950983</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>14.11962986290431</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>12.24932096754717</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.906157486505769</v>
+        <v>7.269920609558694</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.813391634597316</v>
+        <v>4.808014668597906</v>
       </c>
       <c r="E8">
-        <v>15.34509454877903</v>
+        <v>15.3702780075167</v>
       </c>
       <c r="F8">
-        <v>15.47325551652398</v>
+        <v>15.54532999761848</v>
       </c>
       <c r="G8">
-        <v>18.25060044195448</v>
+        <v>18.05314201087494</v>
       </c>
       <c r="H8">
-        <v>1.984457125106871</v>
+        <v>1.99995885589167</v>
       </c>
       <c r="I8">
-        <v>3.545233336521942</v>
+        <v>3.266643325184074</v>
       </c>
       <c r="J8">
-        <v>7.762899745610594</v>
+        <v>8.299325476581034</v>
       </c>
       <c r="K8">
-        <v>14.01073990825268</v>
+        <v>13.39454835485863</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.74451151896822</v>
       </c>
       <c r="M8">
-        <v>15.86971060315108</v>
+        <v>9.010276509023639</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.3942443955639</v>
+        <v>15.5799768177708</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12.23323598760895</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>15.36238554404421</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>12.29516642492333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.902473198602826</v>
+        <v>8.133322504626671</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.327294643175378</v>
+        <v>5.338042358295371</v>
       </c>
       <c r="E9">
-        <v>17.01804480371134</v>
+        <v>17.00517084756004</v>
       </c>
       <c r="F9">
-        <v>16.46156393320202</v>
+        <v>16.48486356685651</v>
       </c>
       <c r="G9">
-        <v>19.55870636179687</v>
+        <v>19.42469474188566</v>
       </c>
       <c r="H9">
-        <v>2.448410345728605</v>
+        <v>2.455516142367147</v>
       </c>
       <c r="I9">
-        <v>3.316209129783861</v>
+        <v>3.074723634124108</v>
       </c>
       <c r="J9">
-        <v>7.732611651205105</v>
+        <v>8.288393972349928</v>
       </c>
       <c r="K9">
-        <v>13.48379547865904</v>
+        <v>12.9322753059085</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.48675529274177</v>
       </c>
       <c r="M9">
-        <v>17.70726105828872</v>
+        <v>8.510730233179565</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.55396728231305</v>
+        <v>17.49542201975858</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12.46767645427645</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>17.54654811118836</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>12.5016561300241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.55457068620403</v>
+        <v>8.731966535383906</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.700336767285772</v>
+        <v>5.7371144909339</v>
       </c>
       <c r="E10">
-        <v>17.61862503983693</v>
+        <v>17.58704586047982</v>
       </c>
       <c r="F10">
-        <v>17.08253905691757</v>
+        <v>16.99628953300162</v>
       </c>
       <c r="G10">
-        <v>20.32464294205682</v>
+        <v>20.71319159072494</v>
       </c>
       <c r="H10">
-        <v>2.747895740796662</v>
+        <v>2.747420345774054</v>
       </c>
       <c r="I10">
-        <v>3.168230448094381</v>
+        <v>2.954954127656285</v>
       </c>
       <c r="J10">
-        <v>7.692339679683403</v>
+        <v>8.05422359957651</v>
       </c>
       <c r="K10">
-        <v>13.11162546345155</v>
+        <v>12.60933694231873</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.36617071670822</v>
       </c>
       <c r="M10">
-        <v>18.99553639964783</v>
+        <v>8.174855115533799</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.73286476735599</v>
+        <v>18.80742958405096</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12.58328150217596</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>18.72849996909719</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>12.53806578576072</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.027997437041874</v>
+        <v>9.310915456252351</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.074705925108502</v>
+        <v>6.139592757100867</v>
       </c>
       <c r="E11">
-        <v>13.64376863160917</v>
+        <v>13.62258685944271</v>
       </c>
       <c r="F11">
-        <v>16.36711971610327</v>
+        <v>16.1643693489313</v>
       </c>
       <c r="G11">
-        <v>18.87621919938283</v>
+        <v>20.37543655274334</v>
       </c>
       <c r="H11">
-        <v>3.376353342296558</v>
+        <v>3.37128269478512</v>
       </c>
       <c r="I11">
-        <v>3.136739789797978</v>
+        <v>2.937648864075165</v>
       </c>
       <c r="J11">
-        <v>7.375019920887516</v>
+        <v>7.414121515894701</v>
       </c>
       <c r="K11">
-        <v>12.99028228386627</v>
+        <v>12.51238821189954</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.39404208597658</v>
       </c>
       <c r="M11">
-        <v>19.85091540363187</v>
+        <v>8.029638691569891</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.99093202730877</v>
+        <v>19.56595328212716</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11.86824792800458</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>16.9106106064837</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>11.741513807042</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.34605013829449</v>
+        <v>9.711284137466079</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.312512560787789</v>
+        <v>6.386217241092186</v>
       </c>
       <c r="E12">
-        <v>10.71335197887469</v>
+        <v>10.67541791678236</v>
       </c>
       <c r="F12">
-        <v>15.64434525530571</v>
+        <v>15.41323798185137</v>
       </c>
       <c r="G12">
-        <v>17.51739422526254</v>
+        <v>19.56143852210458</v>
       </c>
       <c r="H12">
-        <v>4.469420546491889</v>
+        <v>4.464234980179125</v>
       </c>
       <c r="I12">
-        <v>3.122226317667743</v>
+        <v>2.926077856543991</v>
       </c>
       <c r="J12">
-        <v>7.122217849016919</v>
+        <v>7.089599136207429</v>
       </c>
       <c r="K12">
-        <v>13.0263646637174</v>
+        <v>12.54402467763176</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.47746592182269</v>
       </c>
       <c r="M12">
-        <v>20.28170396202852</v>
+        <v>8.007514547087915</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.32443353840466</v>
+        <v>19.92218345052624</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11.25359420807913</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>15.17763766730775</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>11.1135187637884</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.529428891865694</v>
+        <v>9.963476780667445</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.470254623298135</v>
+        <v>6.529359875430657</v>
       </c>
       <c r="E13">
-        <v>8.873818351512751</v>
+        <v>8.785971517794316</v>
       </c>
       <c r="F13">
-        <v>14.82562356393563</v>
+        <v>14.67056683451021</v>
       </c>
       <c r="G13">
-        <v>16.0590860185719</v>
+        <v>18.04846365167366</v>
       </c>
       <c r="H13">
-        <v>5.701599121489576</v>
+        <v>5.697836925900663</v>
       </c>
       <c r="I13">
-        <v>3.134086113619895</v>
+        <v>2.935094714108646</v>
       </c>
       <c r="J13">
-        <v>6.894635124057463</v>
+        <v>6.985261610028179</v>
       </c>
       <c r="K13">
-        <v>13.17306473733982</v>
+        <v>12.65244329999194</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.57061049553785</v>
       </c>
       <c r="M13">
-        <v>20.45609708059551</v>
+        <v>8.07798476104516</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.5508814397991</v>
+        <v>20.03693391190549</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10.65191341062315</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>13.3748920393545</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>10.57594697817589</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.591275546572255</v>
+        <v>10.06918051015471</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.547403981806263</v>
+        <v>6.585295963693172</v>
       </c>
       <c r="E14">
-        <v>8.616304690884217</v>
+        <v>8.479794402621826</v>
       </c>
       <c r="F14">
-        <v>14.19733819507495</v>
+        <v>14.14161792819613</v>
       </c>
       <c r="G14">
-        <v>14.97213741090299</v>
+        <v>16.65664754137676</v>
       </c>
       <c r="H14">
-        <v>6.610463915595181</v>
+        <v>6.607852844235495</v>
       </c>
       <c r="I14">
-        <v>3.156931559715948</v>
+        <v>2.954001030957768</v>
       </c>
       <c r="J14">
-        <v>6.746883302233463</v>
+        <v>6.989651587897841</v>
       </c>
       <c r="K14">
-        <v>13.33150727215297</v>
+        <v>12.7624475480273</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.63505854558089</v>
       </c>
       <c r="M14">
-        <v>20.47127252957639</v>
+        <v>8.174753974270988</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>12.25948480005484</v>
+        <v>20.01535475533039</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10.23486499508652</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>12.06609260235823</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>10.2347607494129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.56561861043318</v>
+        <v>10.05357865399494</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.550442635693929</v>
+        <v>6.578384695600843</v>
       </c>
       <c r="E15">
-        <v>8.707074472559757</v>
+        <v>8.560470199140619</v>
       </c>
       <c r="F15">
-        <v>14.01771039326307</v>
+        <v>14.00617613598567</v>
       </c>
       <c r="G15">
-        <v>14.67482947580713</v>
+        <v>16.1721053166092</v>
       </c>
       <c r="H15">
-        <v>6.818629614692711</v>
+        <v>6.816460619746629</v>
       </c>
       <c r="I15">
-        <v>3.172681047664138</v>
+        <v>2.968368419522281</v>
       </c>
       <c r="J15">
-        <v>6.715010313558303</v>
+        <v>7.023470236893573</v>
       </c>
       <c r="K15">
-        <v>13.39048218799492</v>
+        <v>12.80224510513171</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.64836824899188</v>
       </c>
       <c r="M15">
-        <v>20.42848469750578</v>
+        <v>8.218038967352062</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>11.91950258063778</v>
+        <v>19.96535166858619</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10.13285214927604</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>11.72257002491353</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>10.16447705452273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.259837057203553</v>
+        <v>9.732342703497226</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.376704088149809</v>
+        <v>6.367045094686871</v>
       </c>
       <c r="E16">
-        <v>8.655670580481019</v>
+        <v>8.529156110156636</v>
       </c>
       <c r="F16">
-        <v>13.86517892974612</v>
+        <v>14.0103864337882</v>
       </c>
       <c r="G16">
-        <v>14.54334387515496</v>
+        <v>15.10475128755608</v>
       </c>
       <c r="H16">
-        <v>6.552922241418418</v>
+        <v>6.552692492444076</v>
       </c>
       <c r="I16">
-        <v>3.238806654172581</v>
+        <v>3.02320758540163</v>
       </c>
       <c r="J16">
-        <v>6.775423342214403</v>
+        <v>7.343675902439816</v>
       </c>
       <c r="K16">
-        <v>13.49607955723187</v>
+        <v>12.86987623679901</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.59011097734674</v>
       </c>
       <c r="M16">
-        <v>19.88907702737758</v>
+        <v>8.355725011040342</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>11.65764914040189</v>
+        <v>19.44972337289141</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10.18875228232802</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>11.46812003017621</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>10.32552007403852</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.982895216795365</v>
+        <v>9.424960410077968</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.197950178636368</v>
+        <v>6.176262703882954</v>
       </c>
       <c r="E17">
-        <v>8.558207761136869</v>
+        <v>8.471451249257475</v>
       </c>
       <c r="F17">
-        <v>14.0937828592118</v>
+        <v>14.2852112538582</v>
       </c>
       <c r="G17">
-        <v>15.04078236410694</v>
+        <v>15.17795997150428</v>
       </c>
       <c r="H17">
-        <v>5.817556928258356</v>
+        <v>5.818481263530528</v>
       </c>
       <c r="I17">
-        <v>3.27828233547461</v>
+        <v>3.056328156964383</v>
       </c>
       <c r="J17">
-        <v>6.899577456785661</v>
+        <v>7.574988438325295</v>
       </c>
       <c r="K17">
-        <v>13.494227221239</v>
+        <v>12.87407321609821</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.53015978150935</v>
       </c>
       <c r="M17">
-        <v>19.4594130739547</v>
+        <v>8.408681607524988</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.16412402808437</v>
+        <v>19.05421653022338</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10.45369118133417</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>11.98841919850156</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>10.61952967192724</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.731398861020208</v>
+        <v>9.115555662380114</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.994085907838589</v>
+        <v>5.974738636204144</v>
       </c>
       <c r="E18">
-        <v>9.416410800132644</v>
+        <v>9.381191781577304</v>
       </c>
       <c r="F18">
-        <v>14.68508967584882</v>
+        <v>14.86203697457062</v>
       </c>
       <c r="G18">
-        <v>16.15368826151676</v>
+        <v>16.07611216374428</v>
       </c>
       <c r="H18">
-        <v>4.644685645028939</v>
+        <v>4.646705548292199</v>
       </c>
       <c r="I18">
-        <v>3.288102396944538</v>
+        <v>3.061406357175462</v>
       </c>
       <c r="J18">
-        <v>7.097383362479115</v>
+        <v>7.802261349439586</v>
       </c>
       <c r="K18">
-        <v>13.41564714075722</v>
+        <v>12.83060341935104</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.46652880932261</v>
       </c>
       <c r="M18">
-        <v>19.0635924901928</v>
+        <v>8.396627179742062</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.42655937324741</v>
+        <v>18.71340708035564</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10.93894612773368</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>13.27713905397081</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>11.09307131614551</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.468298493041138</v>
+        <v>8.781394336005825</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.796196906679282</v>
+        <v>5.786410366469945</v>
       </c>
       <c r="E19">
-        <v>11.97857336191528</v>
+        <v>11.96936574787452</v>
       </c>
       <c r="F19">
-        <v>15.47915281946104</v>
+        <v>15.61062497721425</v>
       </c>
       <c r="G19">
-        <v>17.60215436762563</v>
+        <v>17.42038750016807</v>
       </c>
       <c r="H19">
-        <v>3.392177872819811</v>
+        <v>3.395524578391036</v>
       </c>
       <c r="I19">
-        <v>3.28997984510683</v>
+        <v>3.064507579094537</v>
       </c>
       <c r="J19">
-        <v>7.332155579778202</v>
+        <v>8.024291798205967</v>
       </c>
       <c r="K19">
-        <v>13.33801081672467</v>
+        <v>12.78792330054192</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.42751356593724</v>
       </c>
       <c r="M19">
-        <v>18.77650173247232</v>
+        <v>8.365026785244615</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.24866911558456</v>
+        <v>18.49038527496015</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11.54273871748803</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>15.15507207924334</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>11.66310843717145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.299172452868273</v>
+        <v>8.492376084939689</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.616683329485009</v>
+        <v>5.634917547198893</v>
       </c>
       <c r="E20">
-        <v>17.40637833462903</v>
+        <v>17.38140930066224</v>
       </c>
       <c r="F20">
-        <v>16.85443621579529</v>
+        <v>16.8538513846794</v>
       </c>
       <c r="G20">
-        <v>20.00682933868872</v>
+        <v>19.98572756293653</v>
       </c>
       <c r="H20">
-        <v>2.66821187846961</v>
+        <v>2.670737523445202</v>
       </c>
       <c r="I20">
-        <v>3.235522740687089</v>
+        <v>3.02035930132192</v>
       </c>
       <c r="J20">
-        <v>7.681207063963891</v>
+        <v>8.223228434985003</v>
       </c>
       <c r="K20">
-        <v>13.20685160301527</v>
+        <v>12.69190327042242</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.39104567426886</v>
       </c>
       <c r="M20">
-        <v>18.735476348311</v>
+        <v>8.261435466217144</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.45479204616029</v>
+        <v>18.54426309304589</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12.4997597554247</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>18.45021455425924</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>12.51968338532454</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.751281848428203</v>
+        <v>8.944228143064473</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.853356466932172</v>
+        <v>5.947564865750967</v>
       </c>
       <c r="E21">
-        <v>18.65061884764653</v>
+        <v>18.61906777941813</v>
       </c>
       <c r="F21">
-        <v>17.52409225539826</v>
+        <v>17.16774573147929</v>
       </c>
       <c r="G21">
-        <v>20.94309028786615</v>
+        <v>22.77382972725297</v>
       </c>
       <c r="H21">
-        <v>2.927440816797339</v>
+        <v>2.919004990895427</v>
       </c>
       <c r="I21">
-        <v>3.116608433053381</v>
+        <v>2.924666944669384</v>
       </c>
       <c r="J21">
-        <v>7.713520406171742</v>
+        <v>7.490467491398295</v>
       </c>
       <c r="K21">
-        <v>12.93086734266873</v>
+        <v>12.45565941538985</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.33489095265219</v>
       </c>
       <c r="M21">
-        <v>19.62646141649878</v>
+        <v>8.008059262145824</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.72131899651934</v>
+        <v>19.41287716073454</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12.74675654442539</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>19.70107286215064</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>12.49192298774564</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.078947550245422</v>
+        <v>9.27719507461341</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.010329043335165</v>
+        <v>6.156327359801021</v>
       </c>
       <c r="E22">
-        <v>19.18924238706162</v>
+        <v>19.15562981072165</v>
       </c>
       <c r="F22">
-        <v>17.92811745071029</v>
+        <v>17.32524323334042</v>
       </c>
       <c r="G22">
-        <v>21.49342863344977</v>
+        <v>24.60955479603769</v>
       </c>
       <c r="H22">
-        <v>3.081571065630365</v>
+        <v>3.066182922112477</v>
       </c>
       <c r="I22">
-        <v>3.030368865911574</v>
+        <v>2.850782813063521</v>
       </c>
       <c r="J22">
-        <v>7.729088862066366</v>
+        <v>7.037907957435202</v>
       </c>
       <c r="K22">
-        <v>12.75298375745925</v>
+        <v>12.30597817910831</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.31526846627137</v>
       </c>
       <c r="M22">
-        <v>20.17784934745054</v>
+        <v>7.846183417362806</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.36993827168794</v>
+        <v>19.94511679469682</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12.88988804092911</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>20.33746903979157</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>12.43956887893227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.938273129186477</v>
+        <v>9.121155024213458</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.923106185239199</v>
+        <v>6.034524258909507</v>
       </c>
       <c r="E23">
-        <v>18.91589691183889</v>
+        <v>18.88008942838022</v>
       </c>
       <c r="F23">
-        <v>17.73355411550401</v>
+        <v>17.29539828716281</v>
       </c>
       <c r="G23">
-        <v>21.23728810414171</v>
+        <v>23.4616525325395</v>
       </c>
       <c r="H23">
-        <v>2.999593470529462</v>
+        <v>2.988539279171067</v>
       </c>
       <c r="I23">
-        <v>3.064861259601326</v>
+        <v>2.876088834028684</v>
       </c>
       <c r="J23">
-        <v>7.727477551781522</v>
+        <v>7.346580681748377</v>
       </c>
       <c r="K23">
-        <v>12.84770484585822</v>
+        <v>12.38362739975982</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.31979992173793</v>
       </c>
       <c r="M23">
-        <v>19.86036475966534</v>
+        <v>7.934272201573124</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.01331422113751</v>
+        <v>19.64778755347612</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12.82999177682494</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>19.99227487357727</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>12.51022616302057</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.32230338793125</v>
+        <v>8.499960680128499</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.587290139124315</v>
+        <v>5.606704705737353</v>
       </c>
       <c r="E24">
-        <v>17.82238890521565</v>
+        <v>17.79337342556735</v>
       </c>
       <c r="F24">
-        <v>16.96747228463278</v>
+        <v>16.9601159409359</v>
       </c>
       <c r="G24">
-        <v>20.21515252034024</v>
+        <v>20.16397701913</v>
       </c>
       <c r="H24">
-        <v>2.68266918964926</v>
+        <v>2.685321798035968</v>
       </c>
       <c r="I24">
-        <v>3.217872065083294</v>
+        <v>2.998943752574714</v>
       </c>
       <c r="J24">
-        <v>7.718575720163376</v>
+        <v>8.261687132416199</v>
       </c>
       <c r="K24">
-        <v>13.21290265550259</v>
+        <v>12.69708266371093</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.39283335615758</v>
       </c>
       <c r="M24">
-        <v>18.65648587820304</v>
+        <v>8.266900445292226</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.62847857783646</v>
+        <v>18.47619648071833</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12.59201062731986</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>18.62969202841917</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>12.60623045129766</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.591780088816493</v>
+        <v>7.860044578742762</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.200165366801571</v>
+        <v>5.201530033479536</v>
       </c>
       <c r="E25">
-        <v>16.5621605283735</v>
+        <v>16.56068239656077</v>
       </c>
       <c r="F25">
-        <v>16.15508057068276</v>
+        <v>16.21688620063186</v>
       </c>
       <c r="G25">
-        <v>19.13550464787658</v>
+        <v>18.87024958712597</v>
       </c>
       <c r="H25">
-        <v>2.326330145339683</v>
+        <v>2.336105320165992</v>
       </c>
       <c r="I25">
-        <v>3.392026347427201</v>
+        <v>3.143559428643687</v>
       </c>
       <c r="J25">
-        <v>7.726486008247726</v>
+        <v>8.332139634909185</v>
       </c>
       <c r="K25">
-        <v>13.6204963168752</v>
+        <v>13.05124266256572</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.53908730952901</v>
       </c>
       <c r="M25">
-        <v>17.2705088785797</v>
+        <v>8.641385466254096</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.01788566555233</v>
+        <v>17.03875654625446</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12.37001900846845</v>
+        <v>17.00368294533434</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>12.43099820879415</v>
       </c>
     </row>
   </sheetData>
